--- a/offline_bom.xlsx
+++ b/offline_bom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="341">
   <si>
     <t>Digi-Key Part Number</t>
   </si>
@@ -713,9 +713,6 @@
   </si>
   <si>
     <t>IC FLASH 8MBIT 104MHZ 8SOIC</t>
-  </si>
-  <si>
-    <t>Minimum / Multiple of 90</t>
   </si>
   <si>
     <t>122-1409-ND</t>
@@ -1036,6 +1033,45 @@
   </si>
   <si>
     <t>transformer</t>
+  </si>
+  <si>
+    <t>not many available</t>
+  </si>
+  <si>
+    <t>rf switch</t>
+  </si>
+  <si>
+    <t>rf filter</t>
+  </si>
+  <si>
+    <t>rf mixer &amp; synth</t>
+  </si>
+  <si>
+    <t>$$$</t>
+  </si>
+  <si>
+    <t>$$$, minimum of 90, flash memory</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>cpld</t>
+  </si>
+  <si>
+    <t>$$</t>
+  </si>
+  <si>
+    <t>buck</t>
+  </si>
+  <si>
+    <t>rf transceiver</t>
+  </si>
+  <si>
+    <t>rf front end</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1215,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1365,6 +1401,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1526,7 +1574,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1562,6 +1610,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1897,10 +1959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1912,13 +1974,13 @@
     <col min="5" max="5" width="29.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="40.85546875" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="113" customWidth="1"/>
+    <col min="8" max="8" width="113" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31.5" thickTop="1" thickBot="1">
+    <row r="1" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
       <c r="A1" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1933,23 +1995,23 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="135.75" thickTop="1">
+      <c r="I1" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="135.75" thickTop="1">
       <c r="A2" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B2" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1959,7 +2021,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F2" s="5">
         <v>55</v>
@@ -1967,18 +2029,18 @@
       <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="9">
         <v>11</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="105">
+    </row>
+    <row r="3" spans="1:10" ht="105">
       <c r="A3" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B3" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1988,7 +2050,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F3" s="5">
         <v>33</v>
@@ -1996,18 +2058,18 @@
       <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="9">
-        <v>10</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="60">
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="60">
       <c r="A4" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B4" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2017,7 +2079,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F4" s="5">
         <v>20</v>
@@ -2025,18 +2087,18 @@
       <c r="G4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="9">
         <v>13</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="45">
+    </row>
+    <row r="5" spans="1:10" ht="45">
       <c r="A5" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B5" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B5" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -2046,7 +2108,7 @@
         <v>26</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F5" s="5">
         <v>11</v>
@@ -2054,18 +2116,18 @@
       <c r="G5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="9">
-        <v>10</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="30">
+      <c r="I5" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30">
       <c r="A6" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B6" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -2075,7 +2137,7 @@
         <v>29</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F6" s="5">
         <v>10</v>
@@ -2083,18 +2145,18 @@
       <c r="G6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="9">
         <v>18</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="30">
+    </row>
+    <row r="7" spans="1:10" ht="30">
       <c r="A7" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B7" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -2104,7 +2166,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F7" s="5">
         <v>7</v>
@@ -2112,18 +2174,18 @@
       <c r="G7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="9">
         <v>6</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="30">
+    </row>
+    <row r="8" spans="1:10" ht="30">
       <c r="A8" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B8" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -2133,7 +2195,7 @@
         <v>46</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F8" s="5">
         <v>6</v>
@@ -2141,47 +2203,47 @@
       <c r="G8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="9">
         <v>18</v>
       </c>
-      <c r="I8" s="4" t="s">
+    </row>
+    <row r="9" spans="1:10" s="18" customFormat="1">
+      <c r="A9" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="F9" s="16">
+        <v>4</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="F9" s="5">
-        <v>4</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="9">
-        <v>10</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" s="16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B10" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>57</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -2191,7 +2253,7 @@
         <v>58</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F10" s="5">
         <v>4</v>
@@ -2199,47 +2261,50 @@
       <c r="G10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="9">
         <v>6</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B11" s="4" t="s">
+    </row>
+    <row r="11" spans="1:10" s="15" customFormat="1">
+      <c r="A11" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="E11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F11" s="14">
         <v>4</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="9">
-        <v>10</v>
-      </c>
-      <c r="I11" s="4" t="s">
+      <c r="H11" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="I11" s="14">
+        <v>10</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B12" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>69</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -2249,7 +2314,7 @@
         <v>70</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F12" s="5">
         <v>3</v>
@@ -2257,18 +2322,18 @@
       <c r="G12" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="9">
         <v>14</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B13" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>99</v>
       </c>
       <c r="C13" s="4" t="s">
@@ -2278,7 +2343,7 @@
         <v>100</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F13" s="5">
         <v>2</v>
@@ -2286,18 +2351,18 @@
       <c r="G13" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H13" s="9">
-        <v>10</v>
-      </c>
-      <c r="I13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="I13" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B14" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>123</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -2307,7 +2372,7 @@
         <v>124</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F14" s="5">
         <v>2</v>
@@ -2315,18 +2380,18 @@
       <c r="G14" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H14" s="9">
-        <v>10</v>
-      </c>
-      <c r="I14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I14" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B15" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>126</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -2336,7 +2401,7 @@
         <v>127</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F15" s="5">
         <v>2</v>
@@ -2344,18 +2409,18 @@
       <c r="G15" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="9">
         <v>18</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B16" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>179</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -2373,18 +2438,18 @@
       <c r="G16" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="9">
         <v>18</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B17" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>193</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -2402,11 +2467,11 @@
       <c r="G17" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="9">
         <v>6</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2416,14 +2481,14 @@
       <c r="E18" s="6"/>
       <c r="F18" s="5"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" ht="75">
       <c r="A19" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B19" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -2433,7 +2498,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F19" s="5">
         <v>22</v>
@@ -2441,18 +2506,18 @@
       <c r="G19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="9">
         <v>9</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="90">
       <c r="A20" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B20" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -2462,7 +2527,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F20" s="5">
         <v>21</v>
@@ -2470,16 +2535,16 @@
       <c r="G20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="H20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:9" ht="30">
       <c r="A21" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B21" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -2489,7 +2554,7 @@
         <v>36</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F21" s="5">
         <v>7</v>
@@ -2497,47 +2562,47 @@
       <c r="G21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="9">
         <v>9</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B22" s="4" t="s">
+    </row>
+    <row r="22" spans="1:9" s="18" customFormat="1">
+      <c r="A22" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="F22" s="5">
+      <c r="E22" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="F22" s="16">
         <v>7</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" s="16">
         <v>6</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30">
       <c r="A23" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B23" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -2547,7 +2612,7 @@
         <v>43</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F23" s="5">
         <v>6</v>
@@ -2555,16 +2620,16 @@
       <c r="G23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="H23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" ht="30">
       <c r="A24" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B24" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -2574,7 +2639,7 @@
         <v>49</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F24" s="5">
         <v>6</v>
@@ -2582,18 +2647,18 @@
       <c r="G24" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="9">
         <v>9</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B25" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>63</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -2603,7 +2668,7 @@
         <v>64</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F25" s="5">
         <v>4</v>
@@ -2611,16 +2676,16 @@
       <c r="G25" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="H25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="9"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B26" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>66</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -2630,7 +2695,7 @@
         <v>67</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F26" s="5">
         <v>4</v>
@@ -2638,16 +2703,16 @@
       <c r="G26" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="H26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="9"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B27" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>117</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -2657,7 +2722,7 @@
         <v>118</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F27" s="5">
         <v>2</v>
@@ -2665,16 +2730,16 @@
       <c r="G27" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="H27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I27" s="9"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B28" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B28" s="13" t="s">
         <v>183</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -2692,18 +2757,18 @@
       <c r="G28" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I28" s="9">
         <v>7</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B29" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B29" s="13" t="s">
         <v>197</v>
       </c>
       <c r="C29" s="4" t="s">
@@ -2721,16 +2786,16 @@
       <c r="G29" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="H29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="9"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B30" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>201</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -2748,16 +2813,16 @@
       <c r="G30" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="H30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="9"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B31" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>159</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -2775,18 +2840,18 @@
       <c r="G31" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="9">
         <v>7</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="B32" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B32" s="13" t="s">
         <v>219</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -2804,10 +2869,10 @@
       <c r="G32" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="H32" s="9"/>
-      <c r="I32" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="H32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="9"/>
     </row>
     <row r="33" spans="1:9">
       <c r="B33" s="4"/>
@@ -2816,14 +2881,14 @@
       <c r="E33" s="4"/>
       <c r="F33" s="5"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="9"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="B34" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B34" s="13" t="s">
         <v>51</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -2833,7 +2898,7 @@
         <v>52</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F34" s="5">
         <v>5</v>
@@ -2841,18 +2906,18 @@
       <c r="G34" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="9">
         <v>5</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="B35" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B35" s="13" t="s">
         <v>96</v>
       </c>
       <c r="C35" s="4" t="s">
@@ -2862,7 +2927,7 @@
         <v>97</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F35" s="5">
         <v>2</v>
@@ -2870,40 +2935,40 @@
       <c r="G35" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="9">
         <v>6</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>239</v>
+        <v>319</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>238</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D36" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>241</v>
       </c>
       <c r="F36" s="5">
         <v>1</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="H36" s="9">
+        <v>241</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="9">
         <v>6</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2914,14 +2979,14 @@
       <c r="E37" s="4"/>
       <c r="F37" s="5"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="9"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B38" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B38" s="13" t="s">
         <v>77</v>
       </c>
       <c r="C38" s="4" t="s">
@@ -2931,7 +2996,7 @@
         <v>78</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F38" s="5">
         <v>3</v>
@@ -2939,25 +3004,25 @@
       <c r="G38" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="9">
         <v>12</v>
-      </c>
-      <c r="I38" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>87</v>
+        <v>321</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>310</v>
@@ -2966,49 +3031,49 @@
         <v>2</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H39" s="9">
+        <v>112</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="9">
         <v>9</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>110</v>
+        <v>321</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>88</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F40" s="5">
         <v>2</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="H40" s="9">
+        <v>90</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="9">
         <v>9</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="B41" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B41" s="13" t="s">
         <v>120</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -3018,7 +3083,7 @@
         <v>121</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F41" s="5">
         <v>2</v>
@@ -3026,11 +3091,11 @@
       <c r="G41" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="9">
         <v>9</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -3041,14 +3106,14 @@
       <c r="E42" s="4"/>
       <c r="F42" s="5"/>
       <c r="G42" s="4"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="9"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B43" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B43" s="13" t="s">
         <v>84</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -3058,7 +3123,7 @@
         <v>85</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F43" s="5">
         <v>3</v>
@@ -3066,11 +3131,11 @@
       <c r="G43" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" s="9">
         <v>7</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -3080,14 +3145,14 @@
       <c r="E44" s="4"/>
       <c r="F44" s="5"/>
       <c r="G44" s="4"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="9"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B45" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B45" s="13" t="s">
         <v>74</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -3097,7 +3162,7 @@
         <v>75</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F45" s="5">
         <v>3</v>
@@ -3105,18 +3170,18 @@
       <c r="G45" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="9">
         <v>6</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="13" t="s">
         <v>150</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -3134,18 +3199,18 @@
       <c r="G46" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" s="9">
         <v>14</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B47" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B47" s="13" t="s">
         <v>154</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -3163,18 +3228,18 @@
       <c r="G47" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="H47" s="9">
+      <c r="H47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="9">
         <v>12</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B48" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B48" s="13" t="s">
         <v>134</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -3192,18 +3257,18 @@
       <c r="G48" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H48" s="9">
+      <c r="H48" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="I48" s="9">
         <v>8</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B49" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B49" s="13" t="s">
         <v>174</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -3221,159 +3286,161 @@
       <c r="G49" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="9">
         <v>11</v>
       </c>
-      <c r="I49" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B50" s="4" t="s">
+    </row>
+    <row r="50" spans="1:9" s="18" customFormat="1">
+      <c r="A50" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="B50" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="16">
         <v>1</v>
       </c>
-      <c r="G50" s="4" t="s">
+      <c r="G50" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H50" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="I50" s="16">
         <v>6</v>
       </c>
-      <c r="I50" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="11" customFormat="1">
-      <c r="A51" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B51" s="10" t="s">
+    </row>
+    <row r="51" spans="1:9" s="18" customFormat="1">
+      <c r="A51" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="B51" s="17" t="s">
         <v>228</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="E51" s="10" t="s">
+      <c r="E51" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="16">
         <v>1</v>
       </c>
-      <c r="G51" s="10" t="s">
+      <c r="G51" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="H51" s="9">
+      <c r="H51" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="I51" s="16">
         <v>8</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B52" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="D52" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="E52" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="F52" s="5">
         <v>1</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H52" s="9">
+        <v>237</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="I52" s="9">
         <v>6</v>
       </c>
-      <c r="I52" s="4"/>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B53" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="E53" s="4" t="s">
         <v>245</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>246</v>
       </c>
       <c r="F53" s="5">
         <v>1</v>
       </c>
       <c r="G53" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="I53" s="9"/>
+    </row>
+    <row r="54" spans="1:9" s="15" customFormat="1">
+      <c r="A54" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="H53" s="9"/>
-      <c r="I53" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B54" s="4" t="s">
+      <c r="C54" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="D54" s="4" t="s">
+      <c r="E54" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="F54" s="14">
+        <v>1</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F54" s="5">
-        <v>1</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="H54" s="9">
+      <c r="H54" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="I54" s="14">
         <v>17</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B55" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B55" s="13" t="s">
         <v>168</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -3391,66 +3458,66 @@
       <c r="G55" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="H55" s="9">
+      <c r="H55" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="I55" s="9">
         <v>21</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B56" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="D56" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="E56" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F56" s="16">
+        <v>0</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="F56" s="5">
-        <v>0</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="H56" s="9">
+      <c r="H56" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I56" s="9">
         <v>6</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="11" customFormat="1">
       <c r="A57" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="E57" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="E57" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="F57" s="9">
+      <c r="F57" s="16">
         <v>0</v>
       </c>
       <c r="G57" s="10"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="7" t="s">
+      <c r="H57" s="17" t="s">
         <v>73</v>
       </c>
+      <c r="I57" s="9"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>80</v>
@@ -3462,7 +3529,7 @@
         <v>82</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F58" s="5">
         <v>3</v>
@@ -3470,16 +3537,16 @@
       <c r="G58" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H58" s="9">
+      <c r="H58" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" s="9">
         <v>7</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>205</v>
@@ -3499,14 +3566,14 @@
       <c r="G59" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="H59" s="9"/>
-      <c r="I59" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="H59" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" s="9"/>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>210</v>
@@ -3526,11 +3593,11 @@
       <c r="G60" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="H60" s="9">
+      <c r="H60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" s="9">
         <v>11</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3540,12 +3607,12 @@
       <c r="E61" s="4"/>
       <c r="F61" s="5"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="9"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>144</v>
@@ -3565,14 +3632,14 @@
       <c r="G62" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="H62" s="9"/>
-      <c r="I62" s="4" t="s">
+      <c r="H62" s="4" t="s">
         <v>149</v>
       </c>
+      <c r="I62" s="9"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>188</v>
@@ -3592,16 +3659,16 @@
       <c r="G63" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="H63" s="9">
+      <c r="H63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I63" s="9">
         <v>12</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>129</v>
@@ -3621,11 +3688,11 @@
       <c r="G64" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="H64" s="9">
+      <c r="H64" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I64" s="9">
         <v>6</v>
-      </c>
-      <c r="I64" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3635,12 +3702,12 @@
       <c r="E65" s="4"/>
       <c r="F65" s="5"/>
       <c r="G65" s="4"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="9"/>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>164</v>
@@ -3660,14 +3727,14 @@
       <c r="G66" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="H66" s="9">
+      <c r="H66" s="4"/>
+      <c r="I66" s="9">
         <v>3</v>
       </c>
-      <c r="I66" s="4"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>215</v>
@@ -3687,14 +3754,14 @@
       <c r="G67" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="H67" s="9">
+      <c r="H67" s="4"/>
+      <c r="I67" s="9">
         <v>3</v>
       </c>
-      <c r="I67" s="4"/>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>113</v>
@@ -3706,7 +3773,7 @@
         <v>115</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F68" s="5">
         <v>2</v>
@@ -3714,62 +3781,62 @@
       <c r="G68" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H68" s="9">
+      <c r="H68" s="4"/>
+      <c r="I68" s="9">
         <v>3</v>
       </c>
-      <c r="I68" s="4"/>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D69" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E69" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="F69" s="16">
+        <v>0</v>
+      </c>
+      <c r="G69" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="F69" s="5">
-        <v>0</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="H69" s="9">
+      <c r="H69" s="4"/>
+      <c r="I69" s="9">
         <v>3</v>
       </c>
-      <c r="I69" s="4"/>
     </row>
     <row r="70" spans="1:9" s="11" customFormat="1">
       <c r="A70" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
+        <v>323</v>
+      </c>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
       <c r="D70" s="10" t="s">
         <v>72</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F70" s="9">
         <v>3</v>
       </c>
       <c r="G70" s="10"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="7" t="s">
+      <c r="H70" s="17" t="s">
         <v>73</v>
       </c>
+      <c r="I70" s="9"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>139</v>
@@ -3789,99 +3856,99 @@
       <c r="G72" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="H72" s="9">
+      <c r="H72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I72" s="9">
         <v>6</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="D73" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="E73" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="F73" s="16">
+        <v>0</v>
+      </c>
+      <c r="G73" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="F73" s="5">
-        <v>0</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="H73" s="9"/>
-      <c r="I73" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="H73" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I73" s="9"/>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B74" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="D74" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="E74" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="E74" s="4" t="s">
+      <c r="F74" s="16">
+        <v>0</v>
+      </c>
+      <c r="G74" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="F74" s="5">
-        <v>0</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="H74" s="9">
+      <c r="H74" s="4"/>
+      <c r="I74" s="9">
         <v>4</v>
       </c>
-      <c r="I74" s="4"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B75" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C75" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="D75" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="E75" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="F75" s="16">
+        <v>0</v>
+      </c>
+      <c r="G75" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="F75" s="5">
-        <v>0</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="H75" s="9">
+      <c r="H75" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I75" s="9">
         <v>8</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>91</v>
@@ -3893,7 +3960,7 @@
         <v>93</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F77" s="5">
         <v>2</v>
@@ -3901,16 +3968,16 @@
       <c r="G77" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H77" s="9">
-        <v>10</v>
-      </c>
-      <c r="I77" s="4" t="s">
+      <c r="H77" s="4" t="s">
         <v>95</v>
+      </c>
+      <c r="I77" s="9">
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>102</v>
@@ -3922,7 +3989,7 @@
         <v>104</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F79" s="5">
         <v>2</v>
@@ -3930,14 +3997,14 @@
       <c r="G79" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H79" s="9">
+      <c r="H79" s="4"/>
+      <c r="I79" s="9">
         <v>13</v>
       </c>
-      <c r="I79" s="4"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>106</v>
@@ -3949,7 +4016,7 @@
         <v>108</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F81" s="5">
         <v>2</v>
@@ -3957,15 +4024,15 @@
       <c r="G81" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="H81" s="9">
+      <c r="H81" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I81" s="9">
         <v>12</v>
       </c>
-      <c r="I81" s="4" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/offline_bom.xlsx
+++ b/offline_bom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="353">
   <si>
     <t>Digi-Key Part Number</t>
   </si>
@@ -794,9 +794,6 @@
   </si>
   <si>
     <t>PC TEST POINT TIN SMD</t>
-  </si>
-  <si>
-    <t>LPC4320FBD144</t>
   </si>
   <si>
     <t>U23</t>
@@ -1072,6 +1069,45 @@
   </si>
   <si>
     <t>rf front end</t>
+  </si>
+  <si>
+    <t>516-1586-1-ND</t>
+  </si>
+  <si>
+    <t>rf amp</t>
+  </si>
+  <si>
+    <t>REPLACED</t>
+  </si>
+  <si>
+    <t>LPC4320FBD144,551</t>
+  </si>
+  <si>
+    <t>568-9449-ND</t>
+  </si>
+  <si>
+    <t>NXP SEMICONDUCTORS</t>
+  </si>
+  <si>
+    <t>568-9450-ND</t>
+  </si>
+  <si>
+    <t>LPC4330FBD144,551</t>
+  </si>
+  <si>
+    <t>IC MCU ARM ROMLESS 144LQFP</t>
+  </si>
+  <si>
+    <t>$$, substitute for 516-1586-2-ND</t>
+  </si>
+  <si>
+    <t>$$$, substitue for 568-9449-ND</t>
+  </si>
+  <si>
+    <t>mcu</t>
+  </si>
+  <si>
+    <t>$$$, none available</t>
   </si>
 </sst>
 </file>
@@ -1959,10 +1995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J89"/>
+  <dimension ref="A1:J90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+      <selection activeCell="A89" sqref="A89:XFD89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1980,7 +2016,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
       <c r="A1" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1995,7 +2031,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -2004,12 +2040,12 @@
         <v>5</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="135.75" thickTop="1">
       <c r="A2" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>6</v>
@@ -2021,7 +2057,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F2" s="5">
         <v>55</v>
@@ -2038,7 +2074,7 @@
     </row>
     <row r="3" spans="1:10" ht="105">
       <c r="A3" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>11</v>
@@ -2050,7 +2086,7 @@
         <v>12</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F3" s="5">
         <v>33</v>
@@ -2067,7 +2103,7 @@
     </row>
     <row r="4" spans="1:10" ht="60">
       <c r="A4" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>21</v>
@@ -2079,7 +2115,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F4" s="5">
         <v>20</v>
@@ -2096,7 +2132,7 @@
     </row>
     <row r="5" spans="1:10" ht="45">
       <c r="A5" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>25</v>
@@ -2108,7 +2144,7 @@
         <v>26</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F5" s="5">
         <v>11</v>
@@ -2125,7 +2161,7 @@
     </row>
     <row r="6" spans="1:10" ht="30">
       <c r="A6" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>28</v>
@@ -2137,7 +2173,7 @@
         <v>29</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F6" s="5">
         <v>10</v>
@@ -2154,7 +2190,7 @@
     </row>
     <row r="7" spans="1:10" ht="30">
       <c r="A7" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>31</v>
@@ -2166,7 +2202,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F7" s="5">
         <v>7</v>
@@ -2183,7 +2219,7 @@
     </row>
     <row r="8" spans="1:10" ht="30">
       <c r="A8" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>45</v>
@@ -2195,7 +2231,7 @@
         <v>46</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F8" s="5">
         <v>6</v>
@@ -2212,7 +2248,7 @@
     </row>
     <row r="9" spans="1:10" s="18" customFormat="1">
       <c r="A9" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B9" s="17" t="s">
         <v>54</v>
@@ -2224,7 +2260,7 @@
         <v>55</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F9" s="16">
         <v>4</v>
@@ -2241,7 +2277,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>57</v>
@@ -2253,7 +2289,7 @@
         <v>58</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F10" s="5">
         <v>4</v>
@@ -2270,7 +2306,7 @@
     </row>
     <row r="11" spans="1:10" s="15" customFormat="1">
       <c r="A11" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>60</v>
@@ -2282,7 +2318,7 @@
         <v>61</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F11" s="14">
         <v>4</v>
@@ -2297,12 +2333,12 @@
         <v>10</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>69</v>
@@ -2314,7 +2350,7 @@
         <v>70</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F12" s="5">
         <v>3</v>
@@ -2331,7 +2367,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>99</v>
@@ -2343,7 +2379,7 @@
         <v>100</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F13" s="5">
         <v>2</v>
@@ -2360,7 +2396,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>123</v>
@@ -2372,7 +2408,7 @@
         <v>124</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F14" s="5">
         <v>2</v>
@@ -2389,7 +2425,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>126</v>
@@ -2401,7 +2437,7 @@
         <v>127</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F15" s="5">
         <v>2</v>
@@ -2418,7 +2454,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>179</v>
@@ -2447,7 +2483,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>193</v>
@@ -2486,7 +2522,7 @@
     </row>
     <row r="19" spans="1:9" ht="75">
       <c r="A19" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>14</v>
@@ -2498,7 +2534,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F19" s="5">
         <v>22</v>
@@ -2515,7 +2551,7 @@
     </row>
     <row r="20" spans="1:9" ht="90">
       <c r="A20" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>18</v>
@@ -2527,7 +2563,7 @@
         <v>19</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F20" s="5">
         <v>21</v>
@@ -2542,7 +2578,7 @@
     </row>
     <row r="21" spans="1:9" ht="30">
       <c r="A21" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>35</v>
@@ -2554,7 +2590,7 @@
         <v>36</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F21" s="5">
         <v>7</v>
@@ -2571,7 +2607,7 @@
     </row>
     <row r="22" spans="1:9" s="18" customFormat="1">
       <c r="A22" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>38</v>
@@ -2583,7 +2619,7 @@
         <v>40</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F22" s="16">
         <v>7</v>
@@ -2600,7 +2636,7 @@
     </row>
     <row r="23" spans="1:9" ht="30">
       <c r="A23" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>42</v>
@@ -2612,7 +2648,7 @@
         <v>43</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F23" s="5">
         <v>6</v>
@@ -2627,7 +2663,7 @@
     </row>
     <row r="24" spans="1:9" ht="30">
       <c r="A24" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>48</v>
@@ -2639,7 +2675,7 @@
         <v>49</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F24" s="5">
         <v>6</v>
@@ -2656,7 +2692,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>63</v>
@@ -2668,7 +2704,7 @@
         <v>64</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F25" s="5">
         <v>4</v>
@@ -2683,7 +2719,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>66</v>
@@ -2695,7 +2731,7 @@
         <v>67</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F26" s="5">
         <v>4</v>
@@ -2710,7 +2746,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>117</v>
@@ -2722,7 +2758,7 @@
         <v>118</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F27" s="5">
         <v>2</v>
@@ -2737,7 +2773,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>183</v>
@@ -2766,7 +2802,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>197</v>
@@ -2793,7 +2829,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>201</v>
@@ -2820,7 +2856,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>159</v>
@@ -2849,7 +2885,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>219</v>
@@ -2886,7 +2922,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>51</v>
@@ -2898,7 +2934,7 @@
         <v>52</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F34" s="5">
         <v>5</v>
@@ -2915,7 +2951,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>96</v>
@@ -2927,7 +2963,7 @@
         <v>97</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F35" s="5">
         <v>2</v>
@@ -2944,7 +2980,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>238</v>
@@ -2984,7 +3020,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>77</v>
@@ -2996,7 +3032,7 @@
         <v>78</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F38" s="5">
         <v>3</v>
@@ -3013,7 +3049,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>110</v>
@@ -3025,7 +3061,7 @@
         <v>111</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F39" s="5">
         <v>2</v>
@@ -3042,7 +3078,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>87</v>
@@ -3054,7 +3090,7 @@
         <v>89</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F40" s="5">
         <v>2</v>
@@ -3071,7 +3107,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>120</v>
@@ -3083,7 +3119,7 @@
         <v>121</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F41" s="5">
         <v>2</v>
@@ -3111,7 +3147,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>84</v>
@@ -3123,7 +3159,7 @@
         <v>85</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F43" s="5">
         <v>3</v>
@@ -3150,7 +3186,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>74</v>
@@ -3162,7 +3198,7 @@
         <v>75</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F45" s="5">
         <v>3</v>
@@ -3179,7 +3215,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>150</v>
@@ -3208,7 +3244,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B47" s="13" t="s">
         <v>154</v>
@@ -3237,7 +3273,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B48" s="13" t="s">
         <v>134</v>
@@ -3258,7 +3294,7 @@
         <v>138</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I48" s="9">
         <v>8</v>
@@ -3266,7 +3302,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>174</v>
@@ -3295,7 +3331,7 @@
     </row>
     <row r="50" spans="1:9" s="18" customFormat="1">
       <c r="A50" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B50" s="17" t="s">
         <v>223</v>
@@ -3324,7 +3360,7 @@
     </row>
     <row r="51" spans="1:9" s="18" customFormat="1">
       <c r="A51" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B51" s="17" t="s">
         <v>228</v>
@@ -3345,7 +3381,7 @@
         <v>232</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I51" s="16">
         <v>8</v>
@@ -3353,7 +3389,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>233</v>
@@ -3374,7 +3410,7 @@
         <v>237</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I52" s="9">
         <v>6</v>
@@ -3382,7 +3418,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>242</v>
@@ -3403,13 +3439,13 @@
         <v>246</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I53" s="9"/>
     </row>
     <row r="54" spans="1:9" s="15" customFormat="1">
       <c r="A54" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>247</v>
@@ -3430,7 +3466,7 @@
         <v>250</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I54" s="14">
         <v>17</v>
@@ -3438,7 +3474,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>168</v>
@@ -3459,7 +3495,7 @@
         <v>172</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I55" s="9">
         <v>21</v>
@@ -3467,10 +3503,10 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>251</v>
+        <v>341</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>340</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>252</v>
@@ -3479,280 +3515,259 @@
         <v>253</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="F56" s="16">
-        <v>0</v>
+        <v>301</v>
+      </c>
+      <c r="F56" s="9">
+        <v>2</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>254</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>173</v>
+        <v>349</v>
       </c>
       <c r="I56" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="11" customFormat="1">
-      <c r="A57" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10" t="s">
+    <row r="58" spans="1:9" s="11" customFormat="1">
+      <c r="A58" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="E58" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="E57" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="F57" s="16">
-        <v>0</v>
-      </c>
-      <c r="G57" s="10"/>
-      <c r="H57" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="I57" s="9"/>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="F58" s="5">
-        <v>3</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I58" s="9">
-        <v>7</v>
-      </c>
+      <c r="F58" s="9">
+        <v>1</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="I58" s="9"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>206</v>
+        <v>81</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>208</v>
+        <v>306</v>
       </c>
       <c r="F59" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>209</v>
+        <v>83</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I59" s="9"/>
+      <c r="I59" s="9">
+        <v>7</v>
+      </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F60" s="5">
         <v>1</v>
       </c>
       <c r="G60" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" s="9"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F61" s="5">
+        <v>1</v>
+      </c>
+      <c r="G61" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="H60" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I60" s="9">
+      <c r="H61" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I61" s="9">
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="9"/>
-    </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F62" s="5">
-        <v>1</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>149</v>
-      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
       <c r="I62" s="9"/>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="F63" s="5">
         <v>1</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I63" s="9">
-        <v>12</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="I63" s="9"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="F64" s="5">
         <v>1</v>
       </c>
       <c r="G64" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I64" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F65" s="5">
+        <v>1</v>
+      </c>
+      <c r="G65" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="H64" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I64" s="9">
+      <c r="H65" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I65" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="9"/>
-    </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F66" s="5">
-        <v>1</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>167</v>
-      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="4"/>
       <c r="H66" s="4"/>
-      <c r="I66" s="9">
-        <v>3</v>
-      </c>
+      <c r="I66" s="9"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>215</v>
+        <v>164</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>216</v>
+        <v>165</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>217</v>
+        <v>166</v>
       </c>
       <c r="F67" s="5">
         <v>1</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="9">
@@ -3761,25 +3776,25 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>113</v>
+        <v>215</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>115</v>
+        <v>216</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>306</v>
+        <v>217</v>
       </c>
       <c r="F68" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>116</v>
+        <v>218</v>
       </c>
       <c r="H68" s="4"/>
       <c r="I68" s="9">
@@ -3788,251 +3803,337 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>262</v>
+        <v>113</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>263</v>
+        <v>115</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="F69" s="16">
-        <v>0</v>
+        <v>305</v>
+      </c>
+      <c r="F69" s="5">
+        <v>2</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>265</v>
+        <v>116</v>
       </c>
       <c r="H69" s="4"/>
       <c r="I69" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="11" customFormat="1">
+    <row r="70" spans="1:9">
       <c r="A70" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F70" s="16">
+        <v>0</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H70" s="4"/>
+      <c r="I70" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="11" customFormat="1">
+      <c r="A71" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E70" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="F70" s="9">
+      <c r="E71" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F71" s="9">
         <v>3</v>
       </c>
-      <c r="G70" s="10"/>
-      <c r="H70" s="17" t="s">
+      <c r="G71" s="10"/>
+      <c r="H71" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="I70" s="9"/>
-    </row>
-    <row r="72" spans="1:9">
-      <c r="A72" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F72" s="5">
-        <v>1</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I72" s="9">
-        <v>6</v>
-      </c>
+      <c r="I71" s="9"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>271</v>
+        <v>139</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>272</v>
+        <v>140</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>273</v>
+        <v>141</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="F73" s="16">
-        <v>0</v>
+        <v>142</v>
+      </c>
+      <c r="F73" s="5">
+        <v>1</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>275</v>
+        <v>143</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I73" s="9"/>
+      <c r="I73" s="9">
+        <v>6</v>
+      </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F74" s="16">
         <v>0</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="H74" s="4"/>
-      <c r="I74" s="9">
-        <v>4</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I74" s="9"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="F75" s="16">
         <v>0</v>
       </c>
       <c r="G75" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="H75" s="4"/>
+      <c r="I75" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F76" s="16">
+        <v>0</v>
+      </c>
+      <c r="G76" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="H75" s="4" t="s">
+      <c r="H76" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="I75" s="9">
+      <c r="I76" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
-      <c r="A77" s="12" t="s">
+    <row r="78" spans="1:9">
+      <c r="A78" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="F78" s="5">
+        <v>2</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I78" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E77" s="4" t="s">
+      <c r="B80" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F80" s="5">
+        <v>2</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H80" s="4"/>
+      <c r="I80" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E82" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="F77" s="5">
+      <c r="F82" s="5">
         <v>2</v>
       </c>
-      <c r="G77" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I77" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
-      <c r="A79" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="F79" s="5">
+      <c r="G82" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I82" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="12" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F88" s="9">
         <v>2</v>
       </c>
-      <c r="G79" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H79" s="4"/>
-      <c r="I79" s="9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
-      <c r="A81" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="F81" s="5">
-        <v>2</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H81" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I81" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="G88" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I88" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" s="11" customFormat="1">
+      <c r="A89" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="F89" s="9">
+        <v>1</v>
+      </c>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10" t="s">
+        <v>352</v>
+      </c>
       <c r="I89" s="9"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="I90" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/offline_bom.xlsx
+++ b/offline_bom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="360">
   <si>
     <t>Digi-Key Part Number</t>
   </si>
@@ -1108,6 +1108,27 @@
   </si>
   <si>
     <t>$$$, none available</t>
+  </si>
+  <si>
+    <t>mosfet</t>
+  </si>
+  <si>
+    <t>rf sma conn</t>
+  </si>
+  <si>
+    <t>WM5536-ND</t>
+  </si>
+  <si>
+    <t>MOLEX</t>
+  </si>
+  <si>
+    <t>73251-2120</t>
+  </si>
+  <si>
+    <t>CONN SMA JACK 50 OHM EDGE MNT</t>
+  </si>
+  <si>
+    <t>$$, substitue for 73251-2121</t>
   </si>
 </sst>
 </file>
@@ -1997,8 +2018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89:XFD89"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3559,9 +3580,9 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="B59" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B59" s="13" t="s">
         <v>80</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -3588,9 +3609,9 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="B60" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B60" s="13" t="s">
         <v>205</v>
       </c>
       <c r="C60" s="4" t="s">
@@ -3615,9 +3636,9 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="B61" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B61" s="13" t="s">
         <v>210</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -3652,38 +3673,38 @@
       <c r="H62" s="4"/>
       <c r="I62" s="9"/>
     </row>
-    <row r="63" spans="1:9">
-      <c r="A63" s="9" t="s">
+    <row r="63" spans="1:9" s="18" customFormat="1">
+      <c r="A63" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E63" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F63" s="16">
         <v>1</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="G63" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="H63" s="4" t="s">
+      <c r="H63" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="I63" s="9"/>
+      <c r="I63" s="16"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="13" t="s">
         <v>188</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -3712,7 +3733,7 @@
       <c r="A65" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="13" t="s">
         <v>129</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -3751,7 +3772,7 @@
       <c r="A67" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="13" t="s">
         <v>164</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -3778,7 +3799,7 @@
       <c r="A68" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="13" t="s">
         <v>215</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -3805,7 +3826,7 @@
       <c r="A69" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="13" t="s">
         <v>113</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -3832,7 +3853,7 @@
       <c r="A70" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="13" t="s">
         <v>261</v>
       </c>
       <c r="C70" s="4" t="s">
@@ -3857,12 +3878,16 @@
     </row>
     <row r="71" spans="1:9" s="11" customFormat="1">
       <c r="A71" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
+        <v>354</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>356</v>
+      </c>
       <c r="D71" s="10" t="s">
-        <v>72</v>
+        <v>357</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>304</v>
@@ -3870,9 +3895,11 @@
       <c r="F71" s="9">
         <v>3</v>
       </c>
-      <c r="G71" s="10"/>
-      <c r="H71" s="17" t="s">
-        <v>73</v>
+      <c r="G71" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>359</v>
       </c>
       <c r="I71" s="9"/>
     </row>
@@ -4132,7 +4159,25 @@
       </c>
       <c r="I89" s="9"/>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" s="11" customFormat="1">
+      <c r="A90" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="F90" s="9">
+        <v>3</v>
+      </c>
+      <c r="G90" s="10"/>
+      <c r="H90" s="17" t="s">
+        <v>73</v>
+      </c>
       <c r="I90" s="9"/>
     </row>
   </sheetData>

--- a/offline_bom.xlsx
+++ b/offline_bom.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="offline_bom" sheetId="1" r:id="rId1"/>
+    <sheet name="replaced" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="358">
   <si>
     <t>Digi-Key Part Number</t>
   </si>
@@ -46,9 +47,6 @@
     <t>CAP CER 0.1UF 10V 10% X5R 0402</t>
   </si>
   <si>
-    <t xml:space="preserve">Multiple packaging options exist for the part number you requested. This part was selected by the Digi-Key Auto Sensor </t>
-  </si>
-  <si>
     <t>490-5936-1-ND</t>
   </si>
   <si>
@@ -88,9 +86,6 @@
     <t>CAP CER 22PF 50V 5% NP0 0402</t>
   </si>
   <si>
-    <t xml:space="preserve">(CT) No delivery date available Multiple packaging options exist for the part number you requested. This part was selected by the Digi-Key Auto Sensor </t>
-  </si>
-  <si>
     <t>490-5922-1-ND</t>
   </si>
   <si>
@@ -461,9 +456,6 @@
   </si>
   <si>
     <t>CRYSTAL 25MHZ 8PF SMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(CT) Discontinued by Digi-Key, non-cat available Multiple packaging options exist for the part number you requested. This part was selected by the Digi-Key Auto Sensor </t>
   </si>
   <si>
     <t>490-5904-1-ND</t>
@@ -944,10 +936,6 @@
 R76</t>
   </si>
   <si>
-    <t>Mfg Std Lead 
-Time (Weeks)</t>
-  </si>
-  <si>
     <t>U1, U2, U5, U6, U7, U10, U11</t>
   </si>
   <si>
@@ -1008,18 +996,12 @@
     <t>ind</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>diode</t>
   </si>
   <si>
     <t>crystal</t>
   </si>
   <si>
-    <t>connector</t>
-  </si>
-  <si>
     <t>ferrite</t>
   </si>
   <si>
@@ -1029,9 +1011,6 @@
     <t>switch</t>
   </si>
   <si>
-    <t>transformer</t>
-  </si>
-  <si>
     <t>not many available</t>
   </si>
   <si>
@@ -1077,9 +1056,6 @@
     <t>rf amp</t>
   </si>
   <si>
-    <t>REPLACED</t>
-  </si>
-  <si>
     <t>LPC4320FBD144,551</t>
   </si>
   <si>
@@ -1129,6 +1105,24 @@
   </si>
   <si>
     <t>$$, substitue for 73251-2121</t>
+  </si>
+  <si>
+    <t>usb conn</t>
+  </si>
+  <si>
+    <t>conn</t>
+  </si>
+  <si>
+    <t>rf sheild</t>
+  </si>
+  <si>
+    <t>test point</t>
+  </si>
+  <si>
+    <t>952-1478-1-ND</t>
+  </si>
+  <si>
+    <t>substitue for 952-1478-2-ND</t>
   </si>
 </sst>
 </file>
@@ -1654,9 +1648,6 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="13" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1681,6 +1672,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2016,28 +2010,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J90"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" style="11" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" customWidth="1"/>
     <col min="4" max="4" width="34.5703125" customWidth="1"/>
     <col min="5" max="5" width="29.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="40.85546875" customWidth="1"/>
-    <col min="8" max="8" width="113" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31.5" thickTop="1" thickBot="1">
+    <row r="1" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" s="3" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2052,7 +2045,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
@@ -2060,15 +2053,12 @@
       <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="135.75" thickTop="1">
+    </row>
+    <row r="2" spans="1:8" ht="135.75" thickTop="1">
       <c r="A2" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B2" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2078,7 +2068,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F2" s="5">
         <v>55</v>
@@ -2086,2102 +2076,1779 @@
       <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="105">
+      <c r="A3" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>10</v>
-      </c>
-      <c r="I2" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="105">
-      <c r="A3" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F3" s="5">
         <v>33</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="60">
+        <v>12</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="60">
       <c r="A4" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>21</v>
+        <v>312</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F4" s="5">
         <v>20</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="45">
+      <c r="A5" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="45">
-      <c r="A5" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>25</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F5" s="5">
         <v>11</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="30">
+        <v>25</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="30">
       <c r="A6" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>28</v>
+        <v>312</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F6" s="5">
         <v>10</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="30">
+      <c r="A7" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="30">
-      <c r="A7" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B7" s="13" t="s">
+      <c r="D7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="E7" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F7" s="5">
         <v>7</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30">
+        <v>32</v>
+      </c>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="30">
       <c r="A8" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>45</v>
+        <v>312</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F8" s="5">
         <v>6</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" s="9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="18" customFormat="1">
-      <c r="A9" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="B9" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" s="17" customFormat="1">
+      <c r="A9" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="F9" s="15">
+        <v>4</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="17" t="s">
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="F9" s="16">
-        <v>4</v>
-      </c>
-      <c r="G9" s="17" t="s">
+      <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F10" s="5">
         <v>4</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="15" customFormat="1">
-      <c r="A11" s="14" t="s">
-        <v>316</v>
+        <v>57</v>
+      </c>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" s="14" customFormat="1">
+      <c r="A11" s="13" t="s">
+        <v>312</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="F11" s="14">
+        <v>274</v>
+      </c>
+      <c r="F11" s="13">
         <v>4</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="14">
-        <v>10</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>60</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>69</v>
+        <v>312</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F12" s="5">
         <v>3</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>69</v>
+      </c>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>99</v>
+        <v>312</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F13" s="5">
         <v>2</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>99</v>
+      </c>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>123</v>
+        <v>312</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F14" s="5">
         <v>2</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>123</v>
+      </c>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>126</v>
+        <v>312</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>124</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F15" s="5">
         <v>2</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>126</v>
+      </c>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>179</v>
+        <v>312</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>176</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F16" s="5">
         <v>1</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>179</v>
+      </c>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>193</v>
+        <v>312</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>190</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F17" s="5">
         <v>1</v>
       </c>
       <c r="G17" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" ht="75">
+      <c r="A18" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F18" s="5">
+        <v>22</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" ht="90">
+      <c r="A19" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F19" s="5">
+        <v>21</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" ht="30">
+      <c r="A20" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="F20" s="5">
+        <v>7</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" ht="30">
+      <c r="A21" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="F21" s="5">
+        <v>6</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" ht="30">
+      <c r="A22" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="F22" s="5">
+        <v>6</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="F23" s="5">
+        <v>4</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F24" s="5">
+        <v>4</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F25" s="5">
+        <v>2</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="1:9" ht="75">
-      <c r="A19" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B19" s="13" t="s">
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="F19" s="5">
-        <v>22</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="90">
-      <c r="A20" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="F20" s="5">
-        <v>21</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="1:9" ht="30">
-      <c r="A21" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="F21" s="5">
-        <v>7</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="18" customFormat="1">
-      <c r="A22" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="F22" s="16">
-        <v>7</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="30">
-      <c r="A23" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="F23" s="5">
-        <v>6</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="1:9" ht="30">
-      <c r="A24" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="F24" s="5">
-        <v>6</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="F25" s="5">
-        <v>4</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="F26" s="5">
-        <v>4</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="F27" s="5">
-        <v>2</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>184</v>
-      </c>
       <c r="D28" s="4" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="F28" s="5">
         <v>1</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>201</v>
+      </c>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>197</v>
+        <v>313</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>156</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="F29" s="5">
         <v>1</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="1:9">
+        <v>160</v>
+      </c>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>201</v>
+        <v>313</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>216</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="F30" s="5">
         <v>1</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="1:9">
+        <v>219</v>
+      </c>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>159</v>
+        <v>314</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>161</v>
+        <v>50</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>162</v>
+        <v>298</v>
       </c>
       <c r="F31" s="5">
+        <v>5</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F32" s="5">
+        <v>2</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F33" s="5">
         <v>1</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31" s="9">
+      <c r="G33" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="F32" s="5">
-        <v>1</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32" s="9"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="9"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="D34" s="4" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F34" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>77</v>
+      </c>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>96</v>
+        <v>315</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F35" s="5">
         <v>2</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>238</v>
+        <v>315</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>239</v>
+        <v>87</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>240</v>
+        <v>304</v>
       </c>
       <c r="F36" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="5"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="4"/>
+        <v>88</v>
+      </c>
+      <c r="H36" s="4"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="F37" s="5">
+        <v>2</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="H37" s="4"/>
-      <c r="I37" s="9"/>
-    </row>
-    <row r="38" spans="1:9">
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>77</v>
+        <v>317</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F38" s="5">
         <v>3</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D39" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H38" s="4"/>
+    </row>
+    <row r="39" spans="1:8" s="17" customFormat="1">
+      <c r="A39" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" s="15">
+        <v>1</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="H39" s="16"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H41" s="4"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F42" s="5">
+        <v>1</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="F39" s="5">
+      <c r="C44" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F44" s="5">
         <v>2</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G44" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H44" s="4"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="H39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I39" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="F40" s="5">
-        <v>2</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I40" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="B41" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="F41" s="5">
-        <v>2</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="5"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="9"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="F43" s="5">
+      <c r="D45" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F45" s="8">
+        <v>1</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H45" s="4"/>
+    </row>
+    <row r="46" spans="1:8" s="10" customFormat="1">
+      <c r="A46" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="F46" s="8">
         <v>3</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I43" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="9"/>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="F45" s="5">
-        <v>3</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="F46" s="5">
-        <v>1</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" s="9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>154</v>
+      <c r="G46" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>137</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="F47" s="5">
         <v>1</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>134</v>
+        <v>141</v>
+      </c>
+      <c r="H47" s="4"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>135</v>
+        <v>268</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>136</v>
+        <v>269</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F48" s="5">
+        <v>270</v>
+      </c>
+      <c r="F48" s="8">
         <v>1</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="I48" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>174</v>
+        <v>271</v>
+      </c>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>262</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>175</v>
+        <v>263</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>176</v>
+        <v>264</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F49" s="5">
+        <v>265</v>
+      </c>
+      <c r="F49" s="8">
         <v>1</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I49" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="18" customFormat="1">
-      <c r="A50" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="E50" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="F50" s="16">
+        <v>266</v>
+      </c>
+      <c r="H49" s="4"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="F50" s="8">
         <v>1</v>
       </c>
-      <c r="G50" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="H50" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="I50" s="16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="18" customFormat="1">
-      <c r="A51" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>228</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>229</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>230</v>
-      </c>
-      <c r="E51" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="F51" s="16">
-        <v>1</v>
-      </c>
-      <c r="G51" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="H51" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="I51" s="16">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="F52" s="5">
-        <v>1</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="I52" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="G50" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F51" s="5">
+        <v>3</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H51" s="4"/>
+    </row>
+    <row r="52" spans="1:8" s="17" customFormat="1">
+      <c r="A52" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="F52" s="15">
+        <v>7</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H52" s="16"/>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>242</v>
+        <v>315</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>147</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>243</v>
+        <v>7</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>244</v>
+        <v>148</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>245</v>
+        <v>149</v>
       </c>
       <c r="F53" s="5">
         <v>1</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="I53" s="9"/>
-    </row>
-    <row r="54" spans="1:9" s="15" customFormat="1">
-      <c r="A54" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F54" s="14">
+        <v>150</v>
+      </c>
+      <c r="H53" s="4"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F54" s="5">
         <v>1</v>
       </c>
-      <c r="G54" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="I54" s="14">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="G54" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>168</v>
+        <v>323</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>132</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="F55" s="5">
         <v>1</v>
       </c>
       <c r="G55" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="H55" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="I55" s="9">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>252</v>
-      </c>
       <c r="D56" s="4" t="s">
-        <v>253</v>
+        <v>173</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="F56" s="9">
-        <v>2</v>
+        <v>174</v>
+      </c>
+      <c r="F56" s="5">
+        <v>1</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="I56" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="11" customFormat="1">
-      <c r="A58" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="F58" s="9">
+        <v>175</v>
+      </c>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="1:8" s="17" customFormat="1">
+      <c r="A57" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="F57" s="15">
         <v>1</v>
       </c>
-      <c r="G58" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="H58" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="I58" s="9"/>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>80</v>
+      <c r="G57" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="17" customFormat="1">
+      <c r="A58" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="F58" s="15">
+        <v>1</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="H58" s="16" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>230</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>81</v>
+        <v>231</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>82</v>
+        <v>232</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>306</v>
+        <v>233</v>
       </c>
       <c r="F59" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>83</v>
+        <v>234</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I59" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
-      <c r="A60" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>205</v>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>239</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="F60" s="5">
         <v>1</v>
       </c>
       <c r="G60" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="14" customFormat="1">
+      <c r="A61" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F61" s="13">
+        <v>1</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F62" s="5">
+        <v>1</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F63" s="8">
+        <v>2</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="10" customFormat="1">
+      <c r="A64" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="F64" s="8">
+        <v>1</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F65" s="5">
+        <v>3</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H65" s="4"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F66" s="5">
+        <v>1</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H66" s="4"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="H60" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I60" s="9"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="B61" s="13" t="s">
+      <c r="E67" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="F61" s="5">
-        <v>1</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I61" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="9"/>
-    </row>
-    <row r="63" spans="1:9" s="18" customFormat="1">
-      <c r="A63" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="E63" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="F63" s="16">
-        <v>1</v>
-      </c>
-      <c r="G63" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="H63" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="I63" s="16"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="A64" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="F64" s="5">
-        <v>1</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="H64" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I64" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="F65" s="5">
-        <v>1</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I65" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="9"/>
-    </row>
-    <row r="67" spans="1:9">
-      <c r="A67" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="F67" s="5">
         <v>1</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>167</v>
+        <v>211</v>
       </c>
       <c r="H67" s="4"/>
-      <c r="I67" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
-      <c r="A68" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="F68" s="5">
-        <v>1</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="H68" s="4"/>
-      <c r="I68" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
-      <c r="A69" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>113</v>
+    </row>
+    <row r="68" spans="1:8" s="17" customFormat="1">
+      <c r="A68" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="F68" s="15">
+        <v>2</v>
+      </c>
+      <c r="G68" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="H68" s="16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>100</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F69" s="5">
         <v>2</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="H69" s="4"/>
-      <c r="I69" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
-      <c r="A70" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>261</v>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>262</v>
+        <v>106</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="F70" s="16">
-        <v>0</v>
+        <v>308</v>
+      </c>
+      <c r="F70" s="5">
+        <v>2</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>264</v>
+        <v>107</v>
       </c>
       <c r="H70" s="4"/>
-      <c r="I70" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" s="11" customFormat="1">
-      <c r="A71" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="F71" s="9">
-        <v>3</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="H71" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="I71" s="9"/>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F73" s="5">
-        <v>1</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I73" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
-      <c r="A74" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="F74" s="16">
-        <v>0</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I74" s="9"/>
-    </row>
-    <row r="75" spans="1:9">
-      <c r="A75" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F75" s="16">
-        <v>0</v>
-      </c>
-      <c r="G75" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="H75" s="4"/>
-      <c r="I75" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
-      <c r="A76" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="F76" s="16">
-        <v>0</v>
-      </c>
-      <c r="G76" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="H76" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="I76" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="F78" s="5">
-        <v>2</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I78" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="F80" s="5">
-        <v>2</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H80" s="4"/>
-      <c r="I80" s="9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
-      <c r="A82" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="F82" s="5">
-        <v>2</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I82" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
-      <c r="A87" s="12" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
-      <c r="A88" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="F88" s="9">
-        <v>2</v>
-      </c>
-      <c r="G88" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="I88" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" s="11" customFormat="1">
-      <c r="A89" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="E89" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="F89" s="9">
-        <v>1</v>
-      </c>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="I89" s="9"/>
-    </row>
-    <row r="90" spans="1:9" s="11" customFormat="1">
-      <c r="A90" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E90" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="F90" s="9">
-        <v>3</v>
-      </c>
-      <c r="G90" s="10"/>
-      <c r="H90" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="I90" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F1" s="8">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="10" customFormat="1">
+      <c r="A2" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="F2" s="8">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="10" customFormat="1">
+      <c r="A3" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="F3" s="8">
+        <v>3</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/offline_bom.xlsx
+++ b/offline_bom.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="390">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -1215,6 +1215,15 @@
   </si>
   <si>
     <t>http://www.mouser.com/ProductDetail/Johanson/2500BL14M100T/?qs=%2fha2pyFadugz8CMKFJ7d9ykb3dR24N3pNJpDIRMCZutihLzqvYLjEw%3d%3d</t>
+  </si>
+  <si>
+    <t>33602400-5-ND</t>
+  </si>
+  <si>
+    <t>SI5351A-B-GM</t>
+  </si>
+  <si>
+    <t>substitue for 336-2402-5-ND</t>
   </si>
 </sst>
 </file>
@@ -1378,7 +1387,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1558,18 +1567,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1735,7 +1732,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1766,9 +1763,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1782,13 +1776,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2146,7 +2133,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2202,25 +2189,25 @@
       <c r="B2" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>261</v>
       </c>
       <c r="G2" s="11">
         <v>55</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="13"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" s="10" customFormat="1" ht="105">
       <c r="A3" s="11" t="s">
@@ -2229,25 +2216,25 @@
       <c r="B3" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>262</v>
       </c>
       <c r="G3" s="11">
         <v>33</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="13"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" s="10" customFormat="1" ht="60">
       <c r="A4" s="11" t="s">
@@ -2256,25 +2243,25 @@
       <c r="B4" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>263</v>
       </c>
       <c r="G4" s="11">
         <v>20</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" s="10" customFormat="1" ht="45">
       <c r="A5" s="11" t="s">
@@ -2283,25 +2270,25 @@
       <c r="B5" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>264</v>
       </c>
       <c r="G5" s="11">
         <v>11</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="13"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" s="10" customFormat="1" ht="30">
       <c r="A6" s="11" t="s">
@@ -2310,25 +2297,25 @@
       <c r="B6" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>258</v>
       </c>
       <c r="G6" s="11">
         <v>10</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="13"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" s="10" customFormat="1" ht="30">
       <c r="A7" s="11" t="s">
@@ -2337,25 +2324,25 @@
       <c r="B7" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>259</v>
       </c>
       <c r="G7" s="11">
         <v>7</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="13"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" s="10" customFormat="1" ht="45">
       <c r="A8" s="11" t="s">
@@ -2364,52 +2351,52 @@
       <c r="B8" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>265</v>
       </c>
       <c r="G8" s="11">
         <v>6</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="1:9" s="17" customFormat="1">
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" s="16" customFormat="1">
       <c r="A9" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="14">
         <v>4</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="15" t="s">
         <v>338</v>
       </c>
     </row>
@@ -2420,52 +2407,52 @@
       <c r="B10" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>252</v>
       </c>
       <c r="G10" s="11">
         <v>4</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" spans="1:9" s="17" customFormat="1">
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" s="16" customFormat="1">
       <c r="A11" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>291</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="14">
         <v>4</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>342</v>
       </c>
     </row>
@@ -2476,25 +2463,25 @@
       <c r="B12" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>254</v>
       </c>
       <c r="G12" s="11">
         <v>3</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="13"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" s="10" customFormat="1">
       <c r="A13" s="11" t="s">
@@ -2503,25 +2490,25 @@
       <c r="B13" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="12" t="s">
         <v>255</v>
       </c>
       <c r="G13" s="11">
         <v>2</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I13" s="13"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" s="10" customFormat="1">
       <c r="A14" s="11" t="s">
@@ -2530,25 +2517,25 @@
       <c r="B14" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="12" t="s">
         <v>256</v>
       </c>
       <c r="G14" s="11">
         <v>2</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="I14" s="13"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" s="10" customFormat="1">
       <c r="A15" s="11" t="s">
@@ -2557,25 +2544,25 @@
       <c r="B15" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="12" t="s">
         <v>257</v>
       </c>
       <c r="G15" s="11">
         <v>2</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="I15" s="13"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" s="10" customFormat="1">
       <c r="A16" s="11" t="s">
@@ -2584,25 +2571,25 @@
       <c r="B16" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="12" t="s">
         <v>163</v>
       </c>
       <c r="G16" s="11">
         <v>1</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="I16" s="13"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" s="10" customFormat="1">
       <c r="A17" s="11" t="s">
@@ -2611,25 +2598,25 @@
       <c r="B17" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="12" t="s">
         <v>175</v>
       </c>
       <c r="G17" s="11">
         <v>1</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="I17" s="13"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" s="10" customFormat="1" ht="75">
       <c r="A18" s="11" t="s">
@@ -2638,25 +2625,25 @@
       <c r="B18" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="13" t="s">
         <v>269</v>
       </c>
       <c r="G18" s="11">
         <v>22</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="13"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" s="10" customFormat="1" ht="90">
       <c r="A19" s="11" t="s">
@@ -2665,25 +2652,25 @@
       <c r="B19" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="13" t="s">
         <v>270</v>
       </c>
       <c r="G19" s="11">
         <v>21</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="13"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" s="10" customFormat="1" ht="30">
       <c r="A20" s="11" t="s">
@@ -2692,25 +2679,25 @@
       <c r="B20" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="13" t="s">
         <v>271</v>
       </c>
       <c r="G20" s="11">
         <v>7</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="13"/>
+      <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" s="10" customFormat="1" ht="30">
       <c r="A21" s="11" t="s">
@@ -2719,25 +2706,25 @@
       <c r="B21" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="13" t="s">
         <v>272</v>
       </c>
       <c r="G21" s="11">
         <v>6</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="I21" s="13"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" s="10" customFormat="1" ht="30">
       <c r="A22" s="11" t="s">
@@ -2746,25 +2733,25 @@
       <c r="B22" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="13" t="s">
         <v>273</v>
       </c>
       <c r="G22" s="11">
         <v>6</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="I22" s="13"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" s="10" customFormat="1">
       <c r="A23" s="11" t="s">
@@ -2773,25 +2760,25 @@
       <c r="B23" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="12" t="s">
         <v>266</v>
       </c>
       <c r="G23" s="11">
         <v>4</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="13"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" s="10" customFormat="1">
       <c r="A24" s="11" t="s">
@@ -2800,25 +2787,25 @@
       <c r="B24" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="12" t="s">
         <v>267</v>
       </c>
       <c r="G24" s="11">
         <v>4</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="I24" s="13"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" s="10" customFormat="1">
       <c r="A25" s="11" t="s">
@@ -2827,25 +2814,25 @@
       <c r="B25" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="12" t="s">
         <v>268</v>
       </c>
       <c r="G25" s="11">
         <v>2</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="I25" s="13"/>
+      <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9" s="10" customFormat="1">
       <c r="A26" s="11" t="s">
@@ -2854,25 +2841,25 @@
       <c r="B26" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="12" t="s">
         <v>167</v>
       </c>
       <c r="G26" s="11">
         <v>1</v>
       </c>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="I26" s="13"/>
+      <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9" s="10" customFormat="1">
       <c r="A27" s="11" t="s">
@@ -2881,25 +2868,25 @@
       <c r="B27" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="12" t="s">
         <v>179</v>
       </c>
       <c r="G27" s="11">
         <v>1</v>
       </c>
-      <c r="H27" s="13" t="s">
+      <c r="H27" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="I27" s="13"/>
+      <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" s="10" customFormat="1">
       <c r="A28" s="11" t="s">
@@ -2908,25 +2895,25 @@
       <c r="B28" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="12" t="s">
         <v>183</v>
       </c>
       <c r="G28" s="11">
         <v>1</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="I28" s="13"/>
+      <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" s="10" customFormat="1">
       <c r="A29" s="11" t="s">
@@ -2935,25 +2922,25 @@
       <c r="B29" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="12" t="s">
         <v>145</v>
       </c>
       <c r="G29" s="11">
         <v>1</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="I29" s="13"/>
+      <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" s="10" customFormat="1">
       <c r="A30" s="11" t="s">
@@ -2962,25 +2949,25 @@
       <c r="B30" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="12" t="s">
         <v>199</v>
       </c>
       <c r="G30" s="11">
         <v>1</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="I30" s="13"/>
+      <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" s="10" customFormat="1">
       <c r="A31" s="11" t="s">
@@ -2989,25 +2976,25 @@
       <c r="B31" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="12" t="s">
         <v>277</v>
       </c>
       <c r="G31" s="11">
         <v>5</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="H31" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I31" s="13"/>
+      <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" s="10" customFormat="1">
       <c r="A32" s="11" t="s">
@@ -3016,25 +3003,25 @@
       <c r="B32" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="12" t="s">
         <v>278</v>
       </c>
       <c r="G32" s="11">
         <v>2</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="H32" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="I32" s="13"/>
+      <c r="I32" s="12"/>
     </row>
     <row r="33" spans="1:9" s="10" customFormat="1">
       <c r="A33" s="11" t="s">
@@ -3043,25 +3030,25 @@
       <c r="B33" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="12" t="s">
         <v>218</v>
       </c>
       <c r="G33" s="11">
         <v>1</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H33" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="I33" s="13"/>
+      <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" s="10" customFormat="1">
       <c r="A34" s="11" t="s">
@@ -3070,25 +3057,25 @@
       <c r="B34" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="12" t="s">
         <v>282</v>
       </c>
       <c r="G34" s="11">
         <v>3</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="H34" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="I34" s="13"/>
+      <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:9" s="10" customFormat="1">
       <c r="A35" s="11" t="s">
@@ -3097,25 +3084,25 @@
       <c r="B35" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="12" t="s">
         <v>284</v>
       </c>
       <c r="G35" s="11">
         <v>2</v>
       </c>
-      <c r="H35" s="13" t="s">
+      <c r="H35" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="I35" s="13"/>
+      <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:9" s="10" customFormat="1">
       <c r="A36" s="11" t="s">
@@ -3124,25 +3111,25 @@
       <c r="B36" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="12" t="s">
         <v>283</v>
       </c>
       <c r="G36" s="11">
         <v>2</v>
       </c>
-      <c r="H36" s="13" t="s">
+      <c r="H36" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="I36" s="13"/>
+      <c r="I36" s="12"/>
     </row>
     <row r="37" spans="1:9" s="10" customFormat="1">
       <c r="A37" s="11" t="s">
@@ -3151,25 +3138,25 @@
       <c r="B37" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="12" t="s">
         <v>285</v>
       </c>
       <c r="G37" s="11">
         <v>2</v>
       </c>
-      <c r="H37" s="13" t="s">
+      <c r="H37" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="I37" s="13"/>
+      <c r="I37" s="12"/>
     </row>
     <row r="38" spans="1:9" s="10" customFormat="1">
       <c r="A38" s="11" t="s">
@@ -3178,52 +3165,52 @@
       <c r="B38" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="12" t="s">
         <v>288</v>
       </c>
       <c r="G38" s="11">
         <v>3</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="H38" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="I38" s="13"/>
-    </row>
-    <row r="39" spans="1:9" s="17" customFormat="1">
+      <c r="I38" s="12"/>
+    </row>
+    <row r="39" spans="1:9" s="16" customFormat="1">
       <c r="A39" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="F39" s="16" t="s">
+      <c r="F39" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G39" s="14">
         <v>1</v>
       </c>
-      <c r="H39" s="16" t="s">
+      <c r="H39" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="I39" s="16" t="s">
+      <c r="I39" s="15" t="s">
         <v>345</v>
       </c>
     </row>
@@ -3231,190 +3218,190 @@
       <c r="A40" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="E40" s="13" t="s">
+      <c r="E40" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="12" t="s">
         <v>171</v>
       </c>
       <c r="G40" s="11">
         <v>1</v>
       </c>
-      <c r="H40" s="13" t="s">
+      <c r="H40" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="I40" s="13"/>
+      <c r="I40" s="12"/>
     </row>
     <row r="41" spans="1:9" s="10" customFormat="1">
       <c r="A41" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E41" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="12" t="s">
         <v>120</v>
       </c>
       <c r="G41" s="11">
         <v>1</v>
       </c>
-      <c r="H41" s="13" t="s">
+      <c r="H41" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="I41" s="13"/>
+      <c r="I41" s="12"/>
     </row>
     <row r="42" spans="1:9" s="10" customFormat="1">
       <c r="A42" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="12" t="s">
         <v>149</v>
       </c>
       <c r="G42" s="11">
         <v>1</v>
       </c>
-      <c r="H42" s="13" t="s">
+      <c r="H42" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="I42" s="13"/>
+      <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:9" s="10" customFormat="1">
       <c r="A43" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="12" t="s">
         <v>195</v>
       </c>
       <c r="G43" s="11">
         <v>1</v>
       </c>
-      <c r="H43" s="13" t="s">
+      <c r="H43" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="I43" s="13"/>
+      <c r="I43" s="12"/>
     </row>
     <row r="44" spans="1:9" s="10" customFormat="1">
       <c r="A44" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E44" s="13" t="s">
+      <c r="E44" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="12" t="s">
         <v>280</v>
       </c>
       <c r="G44" s="11">
         <v>2</v>
       </c>
-      <c r="H44" s="13" t="s">
+      <c r="H44" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="I44" s="13"/>
+      <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:9" s="10" customFormat="1">
       <c r="A45" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D45" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="F45" s="13" t="s">
+      <c r="F45" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="14">
         <v>1</v>
       </c>
-      <c r="H45" s="13" t="s">
+      <c r="H45" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="I45" s="13"/>
-    </row>
-    <row r="46" spans="1:9" s="17" customFormat="1">
+      <c r="I45" s="12"/>
+    </row>
+    <row r="46" spans="1:9" s="16" customFormat="1">
       <c r="A46" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="14" t="s">
         <v>323</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G46" s="14">
         <v>3</v>
       </c>
-      <c r="H46" s="16" t="s">
+      <c r="H46" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="I46" s="16" t="s">
+      <c r="I46" s="15" t="s">
         <v>328</v>
       </c>
     </row>
@@ -3422,109 +3409,109 @@
       <c r="A47" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="14" t="s">
         <v>329</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="E47" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F47" s="12" t="s">
         <v>128</v>
       </c>
       <c r="G47" s="11">
         <v>1</v>
       </c>
-      <c r="H47" s="13" t="s">
+      <c r="H47" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="I47" s="13"/>
+      <c r="I47" s="12"/>
     </row>
     <row r="48" spans="1:9" s="10" customFormat="1">
       <c r="A48" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="G48" s="15">
+      <c r="G48" s="14">
         <v>1</v>
       </c>
-      <c r="H48" s="13" t="s">
+      <c r="H48" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="I48" s="13"/>
+      <c r="I48" s="12"/>
     </row>
     <row r="49" spans="1:9" s="10" customFormat="1">
       <c r="A49" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="E49" s="13" t="s">
+      <c r="E49" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="F49" s="13" t="s">
+      <c r="F49" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="G49" s="15">
+      <c r="G49" s="14">
         <v>1</v>
       </c>
-      <c r="H49" s="13" t="s">
+      <c r="H49" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="I49" s="13"/>
+      <c r="I49" s="12"/>
     </row>
     <row r="50" spans="1:9" s="10" customFormat="1">
       <c r="A50" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="E50" s="13" t="s">
+      <c r="E50" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="G50" s="15">
+      <c r="G50" s="14">
         <v>1</v>
       </c>
-      <c r="H50" s="13" t="s">
+      <c r="H50" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="I50" s="13" t="s">
+      <c r="I50" s="12" t="s">
         <v>334</v>
       </c>
     </row>
@@ -3535,25 +3522,25 @@
       <c r="B51" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D51" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="E51" s="13" t="s">
+      <c r="E51" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="12" t="s">
         <v>275</v>
       </c>
       <c r="G51" s="11">
         <v>3</v>
       </c>
-      <c r="H51" s="13" t="s">
+      <c r="H51" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="I51" s="13"/>
+      <c r="I51" s="12"/>
     </row>
     <row r="52" spans="1:9" s="10" customFormat="1">
       <c r="A52" s="11" t="s">
@@ -3562,25 +3549,25 @@
       <c r="B52" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="12" t="s">
         <v>137</v>
       </c>
       <c r="G52" s="11">
         <v>1</v>
       </c>
-      <c r="H52" s="13" t="s">
+      <c r="H52" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="I52" s="13"/>
+      <c r="I52" s="12"/>
     </row>
     <row r="53" spans="1:9" s="10" customFormat="1">
       <c r="A53" s="11" t="s">
@@ -3589,52 +3576,52 @@
       <c r="B53" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="E53" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="F53" s="12" t="s">
         <v>141</v>
       </c>
       <c r="G53" s="11">
         <v>1</v>
       </c>
-      <c r="H53" s="13" t="s">
+      <c r="H53" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="I53" s="13"/>
+      <c r="I53" s="12"/>
     </row>
     <row r="54" spans="1:9" s="10" customFormat="1" ht="30">
       <c r="A54" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="B54" s="26" t="s">
+      <c r="B54" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D54" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="E54" s="13" t="s">
+      <c r="E54" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="F54" s="13" t="s">
+      <c r="F54" s="12" t="s">
         <v>124</v>
       </c>
       <c r="G54" s="11">
         <v>1</v>
       </c>
-      <c r="H54" s="13" t="s">
+      <c r="H54" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="I54" s="13" t="s">
+      <c r="I54" s="12" t="s">
         <v>302</v>
       </c>
     </row>
@@ -3645,52 +3632,52 @@
       <c r="B55" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D55" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="E55" s="13" t="s">
+      <c r="E55" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="F55" s="12" t="s">
         <v>159</v>
       </c>
       <c r="G55" s="11">
         <v>1</v>
       </c>
-      <c r="H55" s="13" t="s">
+      <c r="H55" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="I55" s="13"/>
-    </row>
-    <row r="56" spans="1:9" s="17" customFormat="1">
-      <c r="A56" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="B56" s="15" t="s">
+      <c r="I55" s="12"/>
+    </row>
+    <row r="56" spans="1:9" s="16" customFormat="1">
+      <c r="A56" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="B56" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="D56" s="16" t="s">
+      <c r="D56" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="E56" s="16" t="s">
+      <c r="E56" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="F56" s="16" t="s">
+      <c r="F56" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="G56" s="15">
+      <c r="G56" s="14">
         <v>1</v>
       </c>
-      <c r="H56" s="16" t="s">
+      <c r="H56" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="I56" s="16" t="s">
+      <c r="I56" s="15" t="s">
         <v>382</v>
       </c>
     </row>
@@ -3701,25 +3688,25 @@
       <c r="B57" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="E57" s="13" t="s">
+      <c r="E57" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="F57" s="13" t="s">
+      <c r="F57" s="12" t="s">
         <v>214</v>
       </c>
       <c r="G57" s="11">
         <v>1</v>
       </c>
-      <c r="H57" s="13" t="s">
+      <c r="H57" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="I57" s="13" t="s">
+      <c r="I57" s="12" t="s">
         <v>306</v>
       </c>
     </row>
@@ -3730,52 +3717,54 @@
       <c r="B58" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="E58" s="13" t="s">
+      <c r="E58" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="F58" s="13" t="s">
+      <c r="F58" s="12" t="s">
         <v>222</v>
       </c>
       <c r="G58" s="11">
         <v>1</v>
       </c>
-      <c r="H58" s="13" t="s">
+      <c r="H58" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="I58" s="13" t="s">
+      <c r="I58" s="12" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="17" customFormat="1">
-      <c r="A59" s="15"/>
-      <c r="B59" s="15" t="s">
+    <row r="59" spans="1:9" s="16" customFormat="1">
+      <c r="A59" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="B59" s="14" t="s">
         <v>309</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="D59" s="16" t="s">
+      <c r="D59" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="F59" s="16" t="s">
+      <c r="F59" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="G59" s="15">
+      <c r="G59" s="14">
         <v>1</v>
       </c>
-      <c r="H59" s="16" t="s">
+      <c r="H59" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="I59" s="16" t="s">
+      <c r="I59" s="15" t="s">
         <v>383</v>
       </c>
     </row>
@@ -3786,25 +3775,25 @@
       <c r="B60" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="D60" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="E60" s="13" t="s">
+      <c r="E60" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="F60" s="13" t="s">
+      <c r="F60" s="12" t="s">
         <v>154</v>
       </c>
       <c r="G60" s="11">
         <v>1</v>
       </c>
-      <c r="H60" s="13" t="s">
+      <c r="H60" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="I60" s="13" t="s">
+      <c r="I60" s="12" t="s">
         <v>302</v>
       </c>
     </row>
@@ -3815,54 +3804,54 @@
       <c r="B61" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="D61" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="E61" s="13" t="s">
+      <c r="E61" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="F61" s="13" t="s">
+      <c r="F61" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="G61" s="15">
+      <c r="G61" s="14">
         <v>2</v>
       </c>
-      <c r="H61" s="13" t="s">
+      <c r="H61" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="I61" s="13" t="s">
+      <c r="I61" s="12" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="17" customFormat="1">
+    <row r="62" spans="1:9" s="16" customFormat="1">
       <c r="A62" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C62" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="D62" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="F62" s="16" t="s">
+      <c r="F62" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="G62" s="15">
+      <c r="G62" s="14">
         <v>1</v>
       </c>
-      <c r="H62" s="16" t="s">
+      <c r="H62" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="I62" s="16" t="s">
+      <c r="I62" s="15" t="s">
         <v>319</v>
       </c>
     </row>
@@ -3870,82 +3859,82 @@
       <c r="A63" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="D63" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="E63" s="13" t="s">
+      <c r="E63" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F63" s="13" t="s">
+      <c r="F63" s="12" t="s">
         <v>281</v>
       </c>
       <c r="G63" s="11">
         <v>3</v>
       </c>
-      <c r="H63" s="13" t="s">
+      <c r="H63" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="I63" s="13"/>
+      <c r="I63" s="12"/>
     </row>
     <row r="64" spans="1:9" s="10" customFormat="1">
       <c r="A64" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="E64" s="13" t="s">
+      <c r="E64" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="F64" s="13" t="s">
+      <c r="F64" s="12" t="s">
         <v>187</v>
       </c>
       <c r="G64" s="11">
         <v>1</v>
       </c>
-      <c r="H64" s="13" t="s">
+      <c r="H64" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="I64" s="13"/>
+      <c r="I64" s="12"/>
     </row>
     <row r="65" spans="1:10" s="10" customFormat="1">
       <c r="A65" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B65" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="D65" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="E65" s="13" t="s">
+      <c r="E65" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="F65" s="13" t="s">
+      <c r="F65" s="12" t="s">
         <v>191</v>
       </c>
       <c r="G65" s="11">
         <v>1</v>
       </c>
-      <c r="H65" s="13" t="s">
+      <c r="H65" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="I65" s="13"/>
+      <c r="I65" s="12"/>
     </row>
     <row r="66" spans="1:10" s="10" customFormat="1">
       <c r="A66" s="11" t="s">
@@ -3954,25 +3943,25 @@
       <c r="B66" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D66" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="E66" s="13" t="s">
+      <c r="E66" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="F66" s="13" t="s">
+      <c r="F66" s="12" t="s">
         <v>289</v>
       </c>
       <c r="G66" s="11">
         <v>2</v>
       </c>
-      <c r="H66" s="13" t="s">
+      <c r="H66" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="I66" s="13"/>
+      <c r="I66" s="12"/>
     </row>
     <row r="67" spans="1:10" s="10" customFormat="1">
       <c r="A67" s="11" t="s">
@@ -3981,184 +3970,139 @@
       <c r="B67" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D67" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="E67" s="13" t="s">
+      <c r="E67" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F67" s="13" t="s">
+      <c r="F67" s="12" t="s">
         <v>287</v>
       </c>
       <c r="G67" s="11">
         <v>2</v>
       </c>
-      <c r="H67" s="13" t="s">
+      <c r="H67" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="I67" s="13"/>
-    </row>
-    <row r="68" spans="1:10" s="10" customFormat="1">
-      <c r="B68" s="21"/>
-      <c r="G68" s="22"/>
-    </row>
-    <row r="69" spans="1:10" s="10" customFormat="1" ht="30">
-      <c r="A69" s="14" t="s">
+      <c r="I67" s="12"/>
+    </row>
+    <row r="68" spans="1:10" s="16" customFormat="1">
+      <c r="A68" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="G68" s="14">
+        <v>1</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="I68" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="J68" s="23"/>
+    </row>
+    <row r="69" spans="1:10" s="10" customFormat="1">
+      <c r="B69" s="17"/>
+      <c r="C69" s="16"/>
+      <c r="G69" s="18"/>
+    </row>
+    <row r="70" spans="1:10" s="10" customFormat="1" ht="30">
+      <c r="A70" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B70" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C70" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D69" s="13" t="s">
+      <c r="D70" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="E69" s="13" t="s">
+      <c r="E70" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F69" s="23" t="s">
+      <c r="F70" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="G69" s="15">
+      <c r="G70" s="14">
         <v>7</v>
       </c>
-      <c r="H69" s="16" t="s">
+      <c r="H70" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="I69" s="25" t="s">
+      <c r="I70" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="J69" s="24" t="s">
+      <c r="J70" s="20" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="10" customFormat="1">
-      <c r="A70" s="14"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="15"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="24"/>
-    </row>
-    <row r="71" spans="1:10" s="17" customFormat="1" ht="26.25">
-      <c r="A71" s="15" t="s">
+    <row r="71" spans="1:10" s="10" customFormat="1">
+      <c r="A71" s="13"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="21"/>
+      <c r="J71" s="20"/>
+    </row>
+    <row r="72" spans="1:10" s="16" customFormat="1" ht="26.25">
+      <c r="A72" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B72" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C72" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="D71" s="16" t="s">
+      <c r="D72" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="E71" s="16" t="s">
+      <c r="E72" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F71" s="16" t="s">
+      <c r="F72" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="G71" s="15">
+      <c r="G72" s="14">
         <v>2</v>
       </c>
-      <c r="H71" s="16" t="s">
+      <c r="H72" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="I71" s="16"/>
-      <c r="J71" s="27" t="s">
+      <c r="I72" s="15"/>
+      <c r="J72" s="23" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="C72" s="6"/>
-    </row>
-    <row r="73" spans="1:10" s="17" customFormat="1">
-      <c r="A73" s="15"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="15"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="27"/>
-    </row>
-    <row r="74" spans="1:10" s="17" customFormat="1">
-      <c r="A74" s="15"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="27"/>
-    </row>
-    <row r="75" spans="1:10" s="17" customFormat="1">
-      <c r="A75" s="15"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="27"/>
-    </row>
-    <row r="76" spans="1:10" s="20" customFormat="1">
-      <c r="A76" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="B76" s="19" t="s">
-        <v>376</v>
-      </c>
-      <c r="C76" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="D76" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="E76" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="F76" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="G76" s="19">
-        <v>1</v>
-      </c>
-      <c r="H76" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="I76" s="18" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" s="10" customFormat="1">
-      <c r="B77" s="21"/>
-      <c r="G77" s="22"/>
-    </row>
-    <row r="78" spans="1:10" s="10" customFormat="1">
-      <c r="B78" s="21"/>
-      <c r="G78" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J69" r:id="rId1"/>
-    <hyperlink ref="J71" r:id="rId2"/>
+    <hyperlink ref="J70" r:id="rId1"/>
+    <hyperlink ref="J72" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -4167,15 +4111,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:I9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="1" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="31.5703125" customWidth="1"/>
     <col min="5" max="5" width="22.140625" customWidth="1"/>
@@ -4183,7 +4127,7 @@
     <col min="8" max="8" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9">
+    <row r="1" spans="1:9">
       <c r="B1" s="3" t="s">
         <v>311</v>
       </c>
@@ -4209,7 +4153,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="2:9" s="6" customFormat="1">
+    <row r="2" spans="1:9" s="6" customFormat="1">
       <c r="B2" s="4" t="s">
         <v>320</v>
       </c>
@@ -4233,7 +4177,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="2:9" s="6" customFormat="1">
+    <row r="3" spans="1:9" s="6" customFormat="1">
       <c r="B3" s="4" t="s">
         <v>323</v>
       </c>
@@ -4253,7 +4197,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="1:9">
       <c r="B4" s="4" t="s">
         <v>332</v>
       </c>
@@ -4279,7 +4223,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="2:9" s="6" customFormat="1">
+    <row r="5" spans="1:9" s="6" customFormat="1">
       <c r="B5" s="4" t="s">
         <v>291</v>
       </c>
@@ -4303,7 +4247,7 @@
       </c>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="2:9" s="6" customFormat="1">
+    <row r="6" spans="1:9" s="6" customFormat="1">
       <c r="B6" s="4" t="s">
         <v>291</v>
       </c>
@@ -4329,7 +4273,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="2:9" s="6" customFormat="1">
+    <row r="7" spans="1:9" s="6" customFormat="1">
       <c r="B7" s="4" t="s">
         <v>295</v>
       </c>
@@ -4353,33 +4297,61 @@
       </c>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="2:9" s="17" customFormat="1">
-      <c r="B8" s="15" t="s">
+    <row r="8" spans="1:9" s="16" customFormat="1">
+      <c r="B8" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <v>1</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="15" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="9" spans="2:9" s="6" customFormat="1"/>
+    <row r="9" spans="1:9" s="16" customFormat="1">
+      <c r="A9" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="G9" s="14">
+        <v>1</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>377</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/offline_bom.xlsx
+++ b/offline_bom.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="360" windowWidth="23715" windowHeight="9765"/>
+    <workbookView xWindow="240" yWindow="360" windowWidth="23715" windowHeight="9765" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="offline_bom" sheetId="1" r:id="rId1"/>
     <sheet name="replaced" sheetId="2" r:id="rId2"/>
-    <sheet name="out of stock" sheetId="4" r:id="rId3"/>
+    <sheet name="cost" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="390">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -115,12 +115,6 @@
   </si>
   <si>
     <t>RES 0.0 OHM 1/16W JUMP 0402</t>
-  </si>
-  <si>
-    <t>863-1451-1-ND</t>
-  </si>
-  <si>
-    <t>SKYWORKS SOLUTIONS INC (VA)</t>
   </si>
   <si>
     <t>SKY13350-385LF</t>
@@ -874,9 +868,6 @@
 R76</t>
   </si>
   <si>
-    <t>U1, U2, U5, U6, U7, U10, U11</t>
-  </si>
-  <si>
     <t>U9, U12, U14</t>
   </si>
   <si>
@@ -1057,9 +1048,6 @@
     <t>substitue for 952-1478-2-ND</t>
   </si>
   <si>
-    <t>490-8206-2-ND</t>
-  </si>
-  <si>
     <t>GRM1555C1H470GA01D</t>
   </si>
   <si>
@@ -1088,9 +1076,6 @@
   </si>
   <si>
     <t>substitue for 478-6625-1-ND</t>
-  </si>
-  <si>
-    <t>none in digikey stock</t>
   </si>
   <si>
     <t>Distributor</t>
@@ -1217,13 +1202,28 @@
     <t>http://www.mouser.com/ProductDetail/Johanson/2500BL14M100T/?qs=%2fha2pyFadugz8CMKFJ7d9ykb3dR24N3pNJpDIRMCZutihLzqvYLjEw%3d%3d</t>
   </si>
   <si>
-    <t>33602400-5-ND</t>
-  </si>
-  <si>
     <t>SI5351A-B-GM</t>
   </si>
   <si>
     <t>substitue for 336-2402-5-ND</t>
+  </si>
+  <si>
+    <t>490-8206-1-ND</t>
+  </si>
+  <si>
+    <t>336-2400-5-ND</t>
+  </si>
+  <si>
+    <t>ckt board</t>
+  </si>
+  <si>
+    <t>digikey parts</t>
+  </si>
+  <si>
+    <t>cdi part</t>
+  </si>
+  <si>
+    <t>mouser part</t>
   </si>
 </sst>
 </file>
@@ -2135,19 +2135,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A62" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
-    <col min="4" max="4" width="43.85546875" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" customWidth="1"/>
-    <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" customWidth="1"/>
+    <col min="7" max="7" width="28" customWidth="1"/>
     <col min="8" max="8" width="39" customWidth="1"/>
     <col min="9" max="9" width="30.7109375" customWidth="1"/>
     <col min="10" max="10" width="81.140625" customWidth="1"/>
@@ -2155,25 +2155,25 @@
   <sheetData>
     <row r="1" spans="1:9" s="10" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" s="8" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>353</v>
+        <v>287</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>258</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>2</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>260</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>3</v>
@@ -2184,25 +2184,25 @@
     </row>
     <row r="2" spans="1:9" s="10" customFormat="1" ht="165.75" thickTop="1">
       <c r="A2" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C2" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C2" s="11">
+        <v>55</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>355</v>
-      </c>
       <c r="E2" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="G2" s="11">
-        <v>55</v>
+      <c r="G2" s="13" t="s">
+        <v>259</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>8</v>
@@ -2211,25 +2211,25 @@
     </row>
     <row r="3" spans="1:9" s="10" customFormat="1" ht="105">
       <c r="A3" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C3" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="11">
+        <v>33</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>355</v>
-      </c>
       <c r="E3" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="G3" s="11">
-        <v>33</v>
+      <c r="G3" s="13" t="s">
+        <v>260</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>11</v>
@@ -2238,25 +2238,25 @@
     </row>
     <row r="4" spans="1:9" s="10" customFormat="1" ht="60">
       <c r="A4" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C4" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4" s="11">
+        <v>20</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>355</v>
-      </c>
       <c r="E4" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="G4" s="11">
-        <v>20</v>
+      <c r="G4" s="13" t="s">
+        <v>261</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>20</v>
@@ -2265,25 +2265,25 @@
     </row>
     <row r="5" spans="1:9" s="10" customFormat="1" ht="45">
       <c r="A5" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C5" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C5" s="11">
+        <v>11</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>355</v>
-      </c>
       <c r="E5" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="G5" s="11">
-        <v>11</v>
+      <c r="G5" s="13" t="s">
+        <v>262</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>23</v>
@@ -2292,25 +2292,25 @@
     </row>
     <row r="6" spans="1:9" s="10" customFormat="1" ht="30">
       <c r="A6" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C6" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C6" s="11">
+        <v>10</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>355</v>
-      </c>
       <c r="E6" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="G6" s="11">
-        <v>10</v>
+      <c r="G6" s="13" t="s">
+        <v>256</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>26</v>
@@ -2319,25 +2319,25 @@
     </row>
     <row r="7" spans="1:9" s="10" customFormat="1" ht="30">
       <c r="A7" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C7" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" s="11">
+        <v>7</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>356</v>
-      </c>
       <c r="E7" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="G7" s="11">
-        <v>7</v>
+      <c r="G7" s="13" t="s">
+        <v>257</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>29</v>
@@ -2346,299 +2346,299 @@
     </row>
     <row r="8" spans="1:9" s="10" customFormat="1" ht="45">
       <c r="A8" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C8" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8" s="11">
+        <v>6</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="G8" s="11">
-        <v>6</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>42</v>
       </c>
       <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" s="16" customFormat="1">
       <c r="A9" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>335</v>
+        <v>288</v>
+      </c>
+      <c r="C9" s="14">
+        <v>4</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="G9" s="14">
-        <v>4</v>
+        <v>332</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>249</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="10" customFormat="1">
       <c r="A10" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C10" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C10" s="11">
+        <v>4</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="G10" s="11">
-        <v>4</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>54</v>
       </c>
       <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" s="16" customFormat="1">
       <c r="A11" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>339</v>
+        <v>288</v>
+      </c>
+      <c r="C11" s="14">
+        <v>4</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="G11" s="14">
-        <v>4</v>
+        <v>336</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>251</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="10" customFormat="1">
       <c r="A12" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C12" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C12" s="11">
+        <v>3</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="G12" s="11">
-        <v>3</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>66</v>
       </c>
       <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" s="10" customFormat="1">
       <c r="A13" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C13" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C13" s="11">
+        <v>2</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="G13" s="11">
-        <v>2</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>91</v>
       </c>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" s="10" customFormat="1">
       <c r="A14" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C14" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14" s="11">
+        <v>2</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="G14" s="11">
-        <v>2</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>114</v>
       </c>
       <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" s="10" customFormat="1">
       <c r="A15" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C15" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C15" s="11">
+        <v>2</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="H15" s="12" t="s">
         <v>115</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="G15" s="11">
-        <v>2</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>117</v>
       </c>
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" s="10" customFormat="1">
       <c r="A16" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C16" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C16" s="11">
+        <v>1</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="E16" s="12" t="s">
+      <c r="H16" s="12" t="s">
         <v>162</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="G16" s="11">
-        <v>1</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>164</v>
       </c>
       <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" s="10" customFormat="1">
       <c r="A17" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C17" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="E17" s="12" t="s">
+      <c r="H17" s="12" t="s">
         <v>174</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="G17" s="11">
-        <v>1</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>176</v>
       </c>
       <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" s="10" customFormat="1" ht="75">
       <c r="A18" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C18" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C18" s="11">
+        <v>22</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>357</v>
-      </c>
       <c r="E18" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="G18" s="11">
-        <v>22</v>
+      <c r="G18" s="13" t="s">
+        <v>267</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>14</v>
@@ -2647,25 +2647,25 @@
     </row>
     <row r="19" spans="1:9" s="10" customFormat="1" ht="90">
       <c r="A19" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C19" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C19" s="11">
+        <v>21</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>357</v>
-      </c>
       <c r="E19" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="G19" s="11">
-        <v>21</v>
+      <c r="G19" s="13" t="s">
+        <v>268</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>17</v>
@@ -2674,25 +2674,25 @@
     </row>
     <row r="20" spans="1:9" s="10" customFormat="1" ht="30">
       <c r="A20" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C20" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C20" s="11">
+        <v>7</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>357</v>
-      </c>
       <c r="E20" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="G20" s="11">
-        <v>7</v>
+      <c r="G20" s="13" t="s">
+        <v>269</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>32</v>
@@ -2701,1402 +2701,1402 @@
     </row>
     <row r="21" spans="1:9" s="10" customFormat="1" ht="30">
       <c r="A21" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C21" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C21" s="11">
+        <v>6</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="H21" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="G21" s="11">
-        <v>6</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>39</v>
       </c>
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" s="10" customFormat="1" ht="30">
       <c r="A22" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C22" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C22" s="11">
+        <v>6</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="H22" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="G22" s="11">
-        <v>6</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" s="10" customFormat="1">
       <c r="A23" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C23" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C23" s="11">
+        <v>4</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="H23" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="G23" s="11">
-        <v>4</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>60</v>
       </c>
       <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" s="10" customFormat="1">
       <c r="A24" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C24" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C24" s="11">
+        <v>4</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="H24" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="G24" s="11">
-        <v>4</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" s="10" customFormat="1">
       <c r="A25" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C25" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C25" s="11">
+        <v>2</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="H25" s="12" t="s">
         <v>106</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="G25" s="11">
-        <v>2</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>108</v>
       </c>
       <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9" s="10" customFormat="1">
       <c r="A26" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C26" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C26" s="11">
+        <v>1</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G26" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="E26" s="12" t="s">
+      <c r="H26" s="12" t="s">
         <v>166</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="G26" s="11">
-        <v>1</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>168</v>
       </c>
       <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9" s="10" customFormat="1">
       <c r="A27" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C27" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C27" s="11">
+        <v>1</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="G27" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="E27" s="12" t="s">
+      <c r="H27" s="12" t="s">
         <v>178</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="G27" s="11">
-        <v>1</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>180</v>
       </c>
       <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" s="10" customFormat="1">
       <c r="A28" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C28" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C28" s="11">
+        <v>1</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="E28" s="12" t="s">
+      <c r="H28" s="12" t="s">
         <v>182</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="G28" s="11">
-        <v>1</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>184</v>
       </c>
       <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" s="10" customFormat="1">
       <c r="A29" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C29" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C29" s="11">
+        <v>1</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="E29" s="12" t="s">
+      <c r="H29" s="12" t="s">
         <v>144</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="G29" s="11">
-        <v>1</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>146</v>
       </c>
       <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" s="10" customFormat="1">
       <c r="A30" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C30" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C30" s="11">
+        <v>1</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="G30" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="E30" s="12" t="s">
+      <c r="H30" s="12" t="s">
         <v>198</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="G30" s="11">
-        <v>1</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>200</v>
       </c>
       <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" s="10" customFormat="1">
       <c r="A31" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="C31" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C31" s="11">
+        <v>5</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="H31" s="12" t="s">
         <v>46</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="G31" s="11">
-        <v>5</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>48</v>
       </c>
       <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" s="10" customFormat="1">
       <c r="A32" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="C32" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C32" s="11">
+        <v>2</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="H32" s="12" t="s">
         <v>86</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="G32" s="11">
-        <v>2</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>88</v>
       </c>
       <c r="I32" s="12"/>
     </row>
     <row r="33" spans="1:9" s="10" customFormat="1">
       <c r="A33" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="C33" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C33" s="11">
+        <v>1</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G33" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="D33" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="E33" s="12" t="s">
+      <c r="H33" s="12" t="s">
         <v>217</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="G33" s="11">
-        <v>1</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>219</v>
       </c>
       <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" s="10" customFormat="1">
       <c r="A34" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="C34" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="C34" s="11">
+        <v>3</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="H34" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F34" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="G34" s="11">
-        <v>3</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>74</v>
       </c>
       <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:9" s="10" customFormat="1">
       <c r="A35" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="C35" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="C35" s="11">
+        <v>2</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="H35" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="G35" s="11">
-        <v>2</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>101</v>
       </c>
       <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:9" s="10" customFormat="1">
       <c r="A36" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="C36" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="C36" s="11">
+        <v>2</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="H36" s="12" t="s">
         <v>81</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="E36" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="G36" s="11">
-        <v>2</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>83</v>
       </c>
       <c r="I36" s="12"/>
     </row>
     <row r="37" spans="1:9" s="10" customFormat="1">
       <c r="A37" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="C37" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="C37" s="11">
+        <v>2</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="H37" s="12" t="s">
         <v>109</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F37" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="G37" s="11">
-        <v>2</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>111</v>
       </c>
       <c r="I37" s="12"/>
     </row>
     <row r="38" spans="1:9" s="10" customFormat="1">
       <c r="A38" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="C38" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="C38" s="11">
+        <v>3</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="H38" s="12" t="s">
         <v>78</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="G38" s="11">
-        <v>3</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>80</v>
       </c>
       <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:9" s="16" customFormat="1">
       <c r="A39" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>343</v>
+        <v>292</v>
+      </c>
+      <c r="C39" s="14">
+        <v>1</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="G39" s="14">
-        <v>1</v>
+        <v>340</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>131</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="10" customFormat="1">
       <c r="A40" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C40" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="C40" s="11">
+        <v>1</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="G40" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="D40" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="E40" s="12" t="s">
+      <c r="H40" s="12" t="s">
         <v>170</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="G40" s="11">
-        <v>1</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>172</v>
       </c>
       <c r="I40" s="12"/>
     </row>
     <row r="41" spans="1:9" s="10" customFormat="1">
       <c r="A41" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="C41" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="C41" s="11">
+        <v>1</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G41" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="D41" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="E41" s="12" t="s">
+      <c r="H41" s="12" t="s">
         <v>119</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G41" s="11">
-        <v>1</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>121</v>
       </c>
       <c r="I41" s="12"/>
     </row>
     <row r="42" spans="1:9" s="10" customFormat="1">
       <c r="A42" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="C42" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="C42" s="11">
+        <v>1</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G42" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="D42" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E42" s="12" t="s">
+      <c r="H42" s="12" t="s">
         <v>148</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="G42" s="11">
-        <v>1</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>150</v>
       </c>
       <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:9" s="10" customFormat="1">
       <c r="A43" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="C43" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="C43" s="11">
+        <v>1</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="G43" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="D43" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E43" s="12" t="s">
+      <c r="H43" s="12" t="s">
         <v>194</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="G43" s="11">
-        <v>1</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>196</v>
       </c>
       <c r="I43" s="12"/>
     </row>
     <row r="44" spans="1:9" s="10" customFormat="1">
       <c r="A44" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="C44" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="C44" s="11">
+        <v>2</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F44" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="G44" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="H44" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="G44" s="11">
-        <v>2</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>105</v>
       </c>
       <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:9" s="10" customFormat="1">
       <c r="A45" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="C45" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="C45" s="14">
+        <v>1</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="G45" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="D45" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E45" s="12" t="s">
+      <c r="H45" s="12" t="s">
         <v>239</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="G45" s="14">
-        <v>1</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>241</v>
       </c>
       <c r="I45" s="12"/>
     </row>
     <row r="46" spans="1:9" s="16" customFormat="1">
       <c r="A46" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B46" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="C46" s="14">
+        <v>3</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="F46" s="15" t="s">
         <v>323</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="G46" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="H46" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="D46" s="15" t="s">
+      <c r="I46" s="15" t="s">
         <v>325</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="G46" s="14">
-        <v>3</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="I46" s="15" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="10" customFormat="1">
       <c r="A47" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="C47" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="C47" s="11">
+        <v>1</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G47" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D47" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="E47" s="12" t="s">
+      <c r="H47" s="12" t="s">
         <v>127</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G47" s="11">
-        <v>1</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>129</v>
       </c>
       <c r="I47" s="12"/>
     </row>
     <row r="48" spans="1:9" s="10" customFormat="1">
       <c r="A48" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="C48" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="C48" s="14">
+        <v>1</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="G48" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="D48" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="E48" s="12" t="s">
+      <c r="H48" s="12" t="s">
         <v>248</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="G48" s="14">
-        <v>1</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>250</v>
       </c>
       <c r="I48" s="12"/>
     </row>
     <row r="49" spans="1:9" s="10" customFormat="1">
       <c r="A49" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="C49" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="C49" s="14">
+        <v>1</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="F49" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="G49" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="E49" s="12" t="s">
+      <c r="H49" s="12" t="s">
         <v>244</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="G49" s="14">
-        <v>1</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>246</v>
       </c>
       <c r="I49" s="12"/>
     </row>
     <row r="50" spans="1:9" s="10" customFormat="1">
       <c r="A50" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="D50" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="C50" s="14">
+        <v>1</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="G50" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="E50" s="12" t="s">
+      <c r="H50" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="F50" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="G50" s="14">
-        <v>1</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>236</v>
-      </c>
       <c r="I50" s="12" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="10" customFormat="1">
       <c r="A51" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="C51" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="C51" s="11">
+        <v>3</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="H51" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="G51" s="11">
-        <v>3</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>71</v>
       </c>
       <c r="I51" s="12"/>
     </row>
     <row r="52" spans="1:9" s="10" customFormat="1">
       <c r="A52" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="C52" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="C52" s="11">
+        <v>1</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G52" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D52" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="E52" s="12" t="s">
+      <c r="H52" s="12" t="s">
         <v>136</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="G52" s="11">
-        <v>1</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>138</v>
       </c>
       <c r="I52" s="12"/>
     </row>
     <row r="53" spans="1:9" s="10" customFormat="1">
       <c r="A53" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="C53" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="C53" s="11">
+        <v>1</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G53" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D53" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="E53" s="12" t="s">
+      <c r="H53" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="G53" s="11">
-        <v>1</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>142</v>
       </c>
       <c r="I53" s="12"/>
     </row>
     <row r="54" spans="1:9" s="10" customFormat="1" ht="30">
       <c r="A54" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>379</v>
-      </c>
-      <c r="C54" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="C54" s="11">
+        <v>1</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G54" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D54" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="E54" s="12" t="s">
+      <c r="H54" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="F54" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G54" s="11">
-        <v>1</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>125</v>
-      </c>
       <c r="I54" s="12" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="10" customFormat="1">
       <c r="A55" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="C55" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="C55" s="11">
+        <v>1</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="G55" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D55" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="E55" s="12" t="s">
+      <c r="H55" s="12" t="s">
         <v>158</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="G55" s="11">
-        <v>1</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>160</v>
       </c>
       <c r="I55" s="12"/>
     </row>
     <row r="56" spans="1:9" s="16" customFormat="1">
       <c r="A56" s="14" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>380</v>
+        <v>301</v>
+      </c>
+      <c r="C56" s="14">
+        <v>1</v>
       </c>
       <c r="D56" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="G56" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="E56" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="G56" s="14">
-        <v>1</v>
-      </c>
       <c r="H56" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I56" s="15" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="10" customFormat="1">
       <c r="A57" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="C57" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="C57" s="11">
+        <v>1</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="F57" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="G57" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="E57" s="12" t="s">
+      <c r="H57" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="F57" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="G57" s="11">
-        <v>1</v>
-      </c>
-      <c r="H57" s="12" t="s">
-        <v>215</v>
-      </c>
       <c r="I57" s="12" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="10" customFormat="1">
       <c r="A58" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="C58" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C58" s="11">
+        <v>1</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="G58" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="D58" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="E58" s="12" t="s">
+      <c r="H58" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="F58" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="G58" s="11">
-        <v>1</v>
-      </c>
-      <c r="H58" s="12" t="s">
-        <v>223</v>
-      </c>
       <c r="I58" s="12" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="16" customFormat="1">
       <c r="A59" s="14" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="C59" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="C59" s="14">
+        <v>1</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="G59" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="D59" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="E59" s="15" t="s">
+      <c r="H59" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="F59" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="G59" s="14">
-        <v>1</v>
-      </c>
-      <c r="H59" s="15" t="s">
-        <v>227</v>
-      </c>
       <c r="I59" s="15" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="10" customFormat="1">
       <c r="A60" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="C60" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C60" s="11">
+        <v>1</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="F60" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="G60" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="E60" s="12" t="s">
+      <c r="H60" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="F60" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="G60" s="11">
-        <v>1</v>
-      </c>
-      <c r="H60" s="12" t="s">
-        <v>155</v>
-      </c>
       <c r="I60" s="12" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="10" customFormat="1">
       <c r="A61" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="D61" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C61" s="14">
+        <v>2</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="H61" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="E61" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="G61" s="14">
-        <v>2</v>
-      </c>
-      <c r="H61" s="12" t="s">
-        <v>231</v>
-      </c>
       <c r="I61" s="12" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="16" customFormat="1">
       <c r="A62" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>315</v>
+        <v>317</v>
+      </c>
+      <c r="C62" s="14">
+        <v>1</v>
       </c>
       <c r="D62" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="H62" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="E62" s="15" t="s">
+      <c r="I62" s="15" t="s">
         <v>316</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="G62" s="14">
-        <v>1</v>
-      </c>
-      <c r="H62" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="I62" s="15" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="10" customFormat="1">
       <c r="A63" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="C63" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C63" s="11">
+        <v>3</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="H63" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="G63" s="11">
-        <v>3</v>
-      </c>
-      <c r="H63" s="12" t="s">
-        <v>77</v>
       </c>
       <c r="I63" s="12"/>
     </row>
     <row r="64" spans="1:9" s="10" customFormat="1">
       <c r="A64" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="C64" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C64" s="11">
+        <v>1</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="G64" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D64" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="E64" s="12" t="s">
+      <c r="H64" s="12" t="s">
         <v>186</v>
-      </c>
-      <c r="F64" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="G64" s="11">
-        <v>1</v>
-      </c>
-      <c r="H64" s="12" t="s">
-        <v>188</v>
       </c>
       <c r="I64" s="12"/>
     </row>
     <row r="65" spans="1:10" s="10" customFormat="1">
       <c r="A65" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="C65" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C65" s="11">
+        <v>1</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="G65" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="D65" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="E65" s="12" t="s">
+      <c r="H65" s="12" t="s">
         <v>190</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="G65" s="11">
-        <v>1</v>
-      </c>
-      <c r="H65" s="12" t="s">
-        <v>192</v>
       </c>
       <c r="I65" s="12"/>
     </row>
     <row r="66" spans="1:10" s="10" customFormat="1">
       <c r="A66" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="C66" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C66" s="11">
+        <v>2</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F66" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="G66" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="H66" s="12" t="s">
         <v>93</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="G66" s="11">
-        <v>2</v>
-      </c>
-      <c r="H66" s="12" t="s">
-        <v>95</v>
       </c>
       <c r="I66" s="12"/>
     </row>
     <row r="67" spans="1:10" s="10" customFormat="1">
       <c r="A67" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>297</v>
-      </c>
-      <c r="C67" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C67" s="11">
+        <v>2</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="H67" s="12" t="s">
         <v>96</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F67" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="G67" s="11">
-        <v>2</v>
-      </c>
-      <c r="H67" s="12" t="s">
-        <v>98</v>
       </c>
       <c r="I67" s="12"/>
     </row>
     <row r="68" spans="1:10" s="16" customFormat="1">
       <c r="A68" s="14" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>387</v>
+        <v>371</v>
+      </c>
+      <c r="C68" s="14">
+        <v>1</v>
       </c>
       <c r="D68" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="G68" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="E68" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="F68" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="G68" s="14">
-        <v>1</v>
-      </c>
       <c r="H68" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I68" s="15" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="J68" s="23"/>
     </row>
     <row r="69" spans="1:10" s="10" customFormat="1">
       <c r="B69" s="17"/>
-      <c r="C69" s="16"/>
-      <c r="G69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="16"/>
     </row>
     <row r="70" spans="1:10" s="10" customFormat="1" ht="30">
       <c r="A70" s="13" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B70" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C70" s="14">
+        <v>7</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="C70" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F70" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="G70" s="14">
-        <v>7</v>
-      </c>
       <c r="H70" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I70" s="21" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="J70" s="20" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="71" spans="1:10" s="10" customFormat="1">
       <c r="A71" s="13"/>
       <c r="B71" s="11"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="12"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="15"/>
       <c r="E71" s="12"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="14"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="19"/>
       <c r="H71" s="15"/>
       <c r="I71" s="21"/>
       <c r="J71" s="20"/>
     </row>
     <row r="72" spans="1:10" s="16" customFormat="1" ht="26.25">
       <c r="A72" s="14" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>385</v>
+        <v>294</v>
+      </c>
+      <c r="C72" s="14">
+        <v>2</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>84</v>
+        <v>368</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="G72" s="14">
-        <v>2</v>
+        <v>82</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>283</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I72" s="15"/>
       <c r="J72" s="23" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -4129,227 +4129,227 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G1" s="4">
         <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="6" customFormat="1">
       <c r="B2" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G2" s="4">
         <v>1</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="6" customFormat="1">
       <c r="B3" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G3" s="4">
         <v>3</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="B4" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="G4" s="4">
         <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="6" customFormat="1">
       <c r="B5" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G5" s="4">
         <v>4</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1">
       <c r="B6" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G6" s="4">
         <v>4</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="6" customFormat="1">
       <c r="B7" s="4" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>133</v>
       </c>
       <c r="G7" s="4">
         <v>1</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:9" s="16" customFormat="1">
       <c r="B8" s="14" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C8" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="F8" s="15" t="s">
         <v>207</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>209</v>
       </c>
       <c r="G8" s="14">
         <v>1</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="16" customFormat="1">
       <c r="A9" s="15" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C9" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="F9" s="15" t="s">
         <v>202</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>204</v>
       </c>
       <c r="G9" s="14">
         <v>1</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -4359,47 +4359,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" customWidth="1"/>
-    <col min="7" max="7" width="35" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1">
-      <c r="A1" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="F1" s="4">
-        <v>7</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>346</v>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B2">
+        <v>114.33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>
